--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 07  JULIO  2021/BALANCE ABASTOS   J U L I O        2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 07  JULIO  2021/BALANCE ABASTOS   J U L I O        2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 07  JULIO  2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 07  JULIO  2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="10725" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="10725" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O     2 0 2 1    " sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="724">
   <si>
     <t>MORRALLA EN CAJA DE 11 SUR   2,800.00  +  $ 1,200.00 Total    $  4,000.00</t>
   </si>
@@ -1807,9 +1807,6 @@
     <t>LONGANIZA-POLLO-MAIZ-CHORIZO</t>
   </si>
   <si>
-    <t xml:space="preserve">#  </t>
-  </si>
-  <si>
     <t>CHORIZO-MAIZ-CECINA-POLLO</t>
   </si>
   <si>
@@ -2674,29 +2671,21 @@
     <t>PERNIL  ( ROEL )</t>
   </si>
   <si>
-    <t>#  286626</t>
-  </si>
-  <si>
-    <t>regreso combo</t>
-  </si>
-  <si>
-    <t>#  286635</t>
-  </si>
-  <si>
-    <t># 286636</t>
-  </si>
-  <si>
-    <t>#  286883</t>
-  </si>
-  <si>
-    <t># 286884</t>
+    <t>FALTANTE DE EFEC TIVO</t>
+  </si>
+  <si>
+    <t># 288164</t>
+  </si>
+  <si>
+    <t># 288167</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
@@ -2704,7 +2693,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3144,8 +3133,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF990033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3254,8 +3259,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="85">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -4273,40 +4284,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top style="mediumDashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="mediumDashed">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -4333,16 +4314,147 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color indexed="64"/>
       </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="mediumDashed">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="mediumDashed">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -4352,7 +4464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="576">
+  <cellXfs count="588">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5332,15 +5444,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="46" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="0" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="17" fillId="16" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5375,25 +5484,33 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="8" borderId="79" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="56" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="19" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="8" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="8" borderId="81" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="8" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="7" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="19" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="19" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="19" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="19" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5539,16 +5656,16 @@
     <xf numFmtId="44" fontId="2" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="53" fillId="16" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="53" fillId="11" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="53" fillId="16" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="53" fillId="11" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="53" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="53" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="53" fillId="16" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="53" fillId="11" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="35" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5620,6 +5737,42 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="16" fillId="8" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="8" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="14" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="11" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="16" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5659,6 +5812,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="54" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="57" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -5669,9 +5825,9 @@
   <colors>
     <mruColors>
       <color rgb="FF66FFFF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF990033"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF9966FF"/>
@@ -9903,64 +10059,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>933449</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>190503</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Cerrar llave 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD942C1C-A887-4BC8-9DF6-B59EF4C1EA51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="10801348" y="10391777"/>
-          <a:ext cx="123827" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-MX" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>68</xdr:row>
@@ -10829,17 +10927,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="509" t="s">
+      <c r="C1" s="506" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
-      <c r="K1" s="509"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="506"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -10870,17 +10968,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="510" t="s">
+      <c r="B3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="511"/>
+      <c r="C3" s="508"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="512"/>
+      <c r="I3" s="509"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -10909,14 +11007,14 @@
       <c r="D4" s="23">
         <v>44201</v>
       </c>
-      <c r="E4" s="513" t="s">
+      <c r="E4" s="510" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="514"/>
-      <c r="H4" s="515" t="s">
+      <c r="F4" s="511"/>
+      <c r="H4" s="512" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="516"/>
+      <c r="I4" s="513"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -13527,61 +13625,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="496" t="s">
+      <c r="H64" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="497"/>
+      <c r="I64" s="494"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="498">
+      <c r="K64" s="495">
         <f>I62+L62</f>
         <v>360753.85</v>
       </c>
-      <c r="L64" s="499"/>
-      <c r="M64" s="500">
+      <c r="L64" s="496"/>
+      <c r="M64" s="497">
         <f>M62+N62</f>
         <v>2886514.7</v>
       </c>
-      <c r="N64" s="501"/>
+      <c r="N64" s="498"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="508" t="s">
+      <c r="D65" s="505" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="508"/>
+      <c r="E65" s="505"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2365880.5699999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="487">
+      <c r="P65" s="484">
         <f>P62+Q62</f>
         <v>3321521.28</v>
       </c>
-      <c r="Q65" s="488"/>
+      <c r="Q65" s="485"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="489" t="s">
+      <c r="D66" s="486" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="489"/>
+      <c r="E66" s="486"/>
       <c r="F66" s="95">
         <v>-2276696.6800000002</v>
       </c>
-      <c r="I66" s="490" t="s">
+      <c r="I66" s="487" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="491"/>
-      <c r="K66" s="492">
+      <c r="J66" s="488"/>
+      <c r="K66" s="489">
         <f>F68+F69+F70</f>
         <v>344253.98999999964</v>
       </c>
-      <c r="L66" s="493"/>
+      <c r="L66" s="490"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -13615,11 +13713,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="494">
+      <c r="K68" s="491">
         <f>-C4</f>
         <v>-250864.68</v>
       </c>
-      <c r="L68" s="495"/>
+      <c r="L68" s="492"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -13643,22 +13741,22 @@
       <c r="C70" s="119">
         <v>44230</v>
       </c>
-      <c r="D70" s="502" t="s">
+      <c r="D70" s="499" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="503"/>
+      <c r="E70" s="500"/>
       <c r="F70" s="120">
         <v>209541.1</v>
       </c>
-      <c r="I70" s="504" t="s">
+      <c r="I70" s="501" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="505"/>
-      <c r="K70" s="506">
+      <c r="J70" s="502"/>
+      <c r="K70" s="503">
         <f>K66+K68</f>
         <v>93389.309999999648</v>
       </c>
-      <c r="L70" s="507"/>
+      <c r="L70" s="504"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -13899,7 +13997,7 @@
         <v>44323</v>
       </c>
       <c r="B6" s="193" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C6" s="71">
         <v>115329.5</v>
@@ -13916,7 +14014,7 @@
         <v>44324</v>
       </c>
       <c r="B7" s="193" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C7" s="71">
         <v>210514.4</v>
@@ -13933,7 +14031,7 @@
         <v>44324</v>
       </c>
       <c r="B8" s="193" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C8" s="71">
         <v>16808</v>
@@ -13950,7 +14048,7 @@
         <v>44326</v>
       </c>
       <c r="B9" s="193" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C9" s="71">
         <v>29077.599999999999</v>
@@ -13967,7 +14065,7 @@
         <v>44326</v>
       </c>
       <c r="B10" s="193" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C10" s="71">
         <v>47948.6</v>
@@ -13985,7 +14083,7 @@
         <v>44327</v>
       </c>
       <c r="B11" s="193" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C11" s="71">
         <v>55802</v>
@@ -14002,7 +14100,7 @@
         <v>44327</v>
       </c>
       <c r="B12" s="193" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C12" s="71">
         <v>50266.6</v>
@@ -14019,7 +14117,7 @@
         <v>44329</v>
       </c>
       <c r="B13" s="193" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C13" s="71">
         <v>183934.07</v>
@@ -14036,7 +14134,7 @@
         <v>44330</v>
       </c>
       <c r="B14" s="193" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C14" s="71">
         <v>187288.82</v>
@@ -14057,7 +14155,7 @@
         <v>44331</v>
       </c>
       <c r="B15" s="193" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C15" s="71">
         <v>108.8</v>
@@ -14074,7 +14172,7 @@
         <v>44331</v>
       </c>
       <c r="B16" s="193" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C16" s="71">
         <v>165123.85</v>
@@ -14091,7 +14189,7 @@
         <v>44333</v>
       </c>
       <c r="B17" s="193" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C17" s="71">
         <v>107259.1</v>
@@ -14108,7 +14206,7 @@
         <v>44335</v>
       </c>
       <c r="B18" s="193" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C18" s="71">
         <v>124216.01</v>
@@ -14125,7 +14223,7 @@
         <v>44335</v>
       </c>
       <c r="B19" s="193" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C19" s="71">
         <v>40493.199999999997</v>
@@ -14142,7 +14240,7 @@
         <v>44335</v>
       </c>
       <c r="B20" s="193" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C20" s="71">
         <v>2172</v>
@@ -14159,7 +14257,7 @@
         <v>44336</v>
       </c>
       <c r="B21" s="193" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C21" s="71">
         <v>62034.5</v>
@@ -14176,7 +14274,7 @@
         <v>44337</v>
       </c>
       <c r="B22" s="193" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C22" s="71">
         <v>120346.16</v>
@@ -14194,7 +14292,7 @@
         <v>44337</v>
       </c>
       <c r="B23" s="193" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C23" s="71">
         <v>44935</v>
@@ -14215,7 +14313,7 @@
         <v>44337</v>
       </c>
       <c r="B24" s="193" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C24" s="71">
         <v>9679.7999999999993</v>
@@ -14232,7 +14330,7 @@
         <v>44338</v>
       </c>
       <c r="B25" s="193" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C25" s="71">
         <v>168583.32</v>
@@ -14249,7 +14347,7 @@
         <v>44338</v>
       </c>
       <c r="B26" s="193" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C26" s="71">
         <v>21117.599999999999</v>
@@ -14266,7 +14364,7 @@
         <v>44340</v>
       </c>
       <c r="B27" s="193" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C27" s="71">
         <v>128928.1</v>
@@ -14283,7 +14381,7 @@
         <v>44341</v>
       </c>
       <c r="B28" s="193" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C28" s="71">
         <v>17042.400000000001</v>
@@ -14300,7 +14398,7 @@
         <v>44341</v>
       </c>
       <c r="B29" s="193" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C29" s="71">
         <v>288</v>
@@ -14317,7 +14415,7 @@
         <v>44341</v>
       </c>
       <c r="B30" s="193" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C30" s="71">
         <v>168700.4</v>
@@ -14335,7 +14433,7 @@
         <v>44343</v>
       </c>
       <c r="B31" s="193" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C31" s="71">
         <v>163151.94</v>
@@ -14352,7 +14450,7 @@
         <v>44344</v>
       </c>
       <c r="B32" s="193" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C32" s="71">
         <v>91776.4</v>
@@ -14373,7 +14471,7 @@
         <v>44345</v>
       </c>
       <c r="B33" s="193" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C33" s="71">
         <v>16448.400000000001</v>
@@ -14390,7 +14488,7 @@
         <v>44345</v>
       </c>
       <c r="B34" s="193" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C34" s="71">
         <v>232988.63</v>
@@ -14407,7 +14505,7 @@
         <v>44347</v>
       </c>
       <c r="B35" s="193" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C35" s="71">
         <v>120348</v>
@@ -14424,7 +14522,7 @@
         <v>44347</v>
       </c>
       <c r="B36" s="193" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C36" s="71">
         <v>42066</v>
@@ -14441,7 +14539,7 @@
         <v>44348</v>
       </c>
       <c r="B37" s="193" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C37" s="71">
         <v>120428.98</v>
@@ -14458,7 +14556,7 @@
         <v>44349</v>
       </c>
       <c r="B38" s="193" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C38" s="71">
         <v>378</v>
@@ -14475,7 +14573,7 @@
         <v>44349</v>
       </c>
       <c r="B39" s="193" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C39" s="71">
         <v>175319.6</v>
@@ -14492,7 +14590,7 @@
         <v>44350</v>
       </c>
       <c r="B40" s="193" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C40" s="71">
         <v>212502.44</v>
@@ -14509,7 +14607,7 @@
         <v>44351</v>
       </c>
       <c r="B41" s="193" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C41" s="71">
         <v>3158.75</v>
@@ -14526,7 +14624,7 @@
         <v>44351</v>
       </c>
       <c r="B42" s="193" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C42" s="71">
         <v>42422.2</v>
@@ -14796,7 +14894,7 @@
         <v>44352</v>
       </c>
       <c r="B66" s="187" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C66" s="7">
         <v>52136</v>
@@ -14813,7 +14911,7 @@
         <v>44352</v>
       </c>
       <c r="B67" s="268" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C67" s="71">
         <v>131950.39999999999</v>
@@ -14830,7 +14928,7 @@
         <v>44353</v>
       </c>
       <c r="B68" s="268" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C68" s="71">
         <v>4436.8</v>
@@ -15167,8 +15265,8 @@
   </sheetPr>
   <dimension ref="A1:AG92"/>
   <sheetViews>
-    <sheetView topLeftCell="H34" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15203,20 +15301,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="557" t="s">
-        <v>530</v>
-      </c>
-      <c r="C1" s="509" t="s">
-        <v>504</v>
-      </c>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
-      <c r="K1" s="509"/>
+      <c r="B1" s="554" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="506" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="506"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -15226,7 +15324,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="555"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -15245,27 +15343,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="540" t="s">
-        <v>597</v>
-      </c>
-      <c r="AC2" s="540"/>
-      <c r="AD2" s="540"/>
-      <c r="AE2" s="540"/>
-      <c r="AF2" s="540"/>
-      <c r="AG2" s="540"/>
+      <c r="AB2" s="537" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC2" s="537"/>
+      <c r="AD2" s="537"/>
+      <c r="AE2" s="537"/>
+      <c r="AF2" s="537"/>
+      <c r="AG2" s="537"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="510" t="s">
+      <c r="B3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="511"/>
+      <c r="C3" s="508"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="512"/>
+      <c r="I3" s="509"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -15273,8 +15371,8 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="530" t="s">
-        <v>563</v>
+      <c r="P3" s="527" t="s">
+        <v>562</v>
       </c>
       <c r="Q3" s="393"/>
       <c r="W3" s="213" t="s">
@@ -15286,12 +15384,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="540"/>
-      <c r="AC3" s="540"/>
-      <c r="AD3" s="540"/>
-      <c r="AE3" s="540"/>
-      <c r="AF3" s="540"/>
-      <c r="AG3" s="540"/>
+      <c r="AB3" s="537"/>
+      <c r="AC3" s="537"/>
+      <c r="AD3" s="537"/>
+      <c r="AE3" s="537"/>
+      <c r="AF3" s="537"/>
+      <c r="AG3" s="537"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -15304,25 +15402,25 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="513" t="s">
+      <c r="E4" s="510" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="514"/>
-      <c r="H4" s="515" t="s">
+      <c r="F4" s="511"/>
+      <c r="H4" s="512" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="516"/>
+      <c r="I4" s="513"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
       <c r="M4" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="530"/>
+      <c r="P4" s="527"/>
       <c r="Q4" s="393"/>
       <c r="R4" s="30"/>
       <c r="S4" s="31"/>
@@ -15337,16 +15435,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="541" t="s">
-        <v>528</v>
-      </c>
-      <c r="AC4" s="542"/>
+      <c r="AB4" s="538" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC4" s="539"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="543" t="s">
-        <v>568</v>
-      </c>
-      <c r="AF4" s="543"/>
-      <c r="AG4" s="543"/>
+      <c r="AE4" s="540" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF4" s="540"/>
+      <c r="AG4" s="540"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
@@ -15384,7 +15482,7 @@
         <v>2926</v>
       </c>
       <c r="O5" s="318" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P5" s="398">
         <v>-79419</v>
@@ -15430,7 +15528,7 @@
         <v>9200</v>
       </c>
       <c r="D6" s="139" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E6" s="136">
         <v>44355</v>
@@ -15486,7 +15584,7 @@
       </c>
       <c r="AD6" s="99"/>
       <c r="AE6" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF6" s="299">
         <v>44356</v>
@@ -15504,7 +15602,7 @@
         <v>10718</v>
       </c>
       <c r="D7" s="140" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E7" s="136">
         <v>44356</v>
@@ -15523,7 +15621,7 @@
         <v>44356</v>
       </c>
       <c r="K7" s="158" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L7" s="46">
         <v>679</v>
@@ -15568,7 +15666,7 @@
       </c>
       <c r="AD7" s="99"/>
       <c r="AE7" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF7" s="299">
         <v>44357</v>
@@ -15586,7 +15684,7 @@
         <v>4966</v>
       </c>
       <c r="D8" s="141" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E8" s="136">
         <v>44357</v>
@@ -15642,7 +15740,7 @@
       </c>
       <c r="AD8" s="99"/>
       <c r="AE8" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF8" s="299">
         <v>44368</v>
@@ -15715,7 +15813,7 @@
       </c>
       <c r="AD9" s="99"/>
       <c r="AE9" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF9" s="299">
         <v>44369</v>
@@ -15733,7 +15831,7 @@
         <v>4654</v>
       </c>
       <c r="D10" s="140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E10" s="136">
         <v>44359</v>
@@ -15752,7 +15850,7 @@
         <v>44359</v>
       </c>
       <c r="K10" s="160" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L10" s="53">
         <f>16368.46+400+4000</f>
@@ -15797,7 +15895,7 @@
       </c>
       <c r="AD10" s="99"/>
       <c r="AE10" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF10" s="299">
         <v>44370</v>
@@ -15815,7 +15913,7 @@
         <v>17685</v>
       </c>
       <c r="D11" s="139" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E11" s="136">
         <v>44360</v>
@@ -15870,7 +15968,7 @@
       </c>
       <c r="AD11" s="99"/>
       <c r="AE11" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF11" s="299">
         <v>44358</v>
@@ -15888,7 +15986,7 @@
         <v>9388</v>
       </c>
       <c r="D12" s="139" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E12" s="136">
         <v>44361</v>
@@ -15943,7 +16041,7 @@
       </c>
       <c r="AD12" s="99"/>
       <c r="AE12" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF12" s="299">
         <v>44361</v>
@@ -15961,7 +16059,7 @@
         <v>3514</v>
       </c>
       <c r="D13" s="141" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="136">
         <v>44362</v>
@@ -15993,7 +16091,7 @@
         <v>8328</v>
       </c>
       <c r="O13" s="396" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P13" s="392">
         <v>0</v>
@@ -16025,7 +16123,7 @@
       </c>
       <c r="AD13" s="99"/>
       <c r="AE13" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF13" s="299">
         <v>44362</v>
@@ -16043,7 +16141,7 @@
         <v>9111</v>
       </c>
       <c r="D14" s="140" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E14" s="136">
         <v>44363</v>
@@ -16069,7 +16167,7 @@
         <v>6703</v>
       </c>
       <c r="O14" s="395" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P14" s="397">
         <v>-5099</v>
@@ -16101,7 +16199,7 @@
       </c>
       <c r="AD14" s="99"/>
       <c r="AE14" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF14" s="299">
         <v>44363</v>
@@ -16119,7 +16217,7 @@
         <v>8755</v>
       </c>
       <c r="D15" s="139" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E15" s="136">
         <v>44364</v>
@@ -16170,7 +16268,7 @@
       </c>
       <c r="AD15" s="99"/>
       <c r="AE15" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF15" s="299">
         <v>44364</v>
@@ -16188,7 +16286,7 @@
         <v>10454</v>
       </c>
       <c r="D16" s="139" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E16" s="136">
         <v>44365</v>
@@ -16243,7 +16341,7 @@
       </c>
       <c r="AD16" s="99"/>
       <c r="AE16" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF16" s="299">
         <v>44365</v>
@@ -16280,7 +16378,7 @@
         <v>44366</v>
       </c>
       <c r="K17" s="158" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L17" s="53">
         <f>16468.46+400+4000</f>
@@ -16326,7 +16424,7 @@
       </c>
       <c r="AD17" s="99"/>
       <c r="AE17" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF17" s="299">
         <v>44371</v>
@@ -16344,7 +16442,7 @@
         <v>26412</v>
       </c>
       <c r="D18" s="139" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E18" s="136">
         <v>44367</v>
@@ -16399,7 +16497,7 @@
       </c>
       <c r="AD18" s="99"/>
       <c r="AE18" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF18" s="299">
         <v>44372</v>
@@ -16472,7 +16570,7 @@
       </c>
       <c r="AD19" s="99"/>
       <c r="AE19" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF19" s="299">
         <v>44376</v>
@@ -16546,7 +16644,7 @@
       </c>
       <c r="AD20" s="99"/>
       <c r="AE20" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF20" s="299">
         <v>44378</v>
@@ -16564,7 +16662,7 @@
         <v>6965</v>
       </c>
       <c r="D21" s="139" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E21" s="136">
         <v>44370</v>
@@ -16633,7 +16731,7 @@
         <v>1742</v>
       </c>
       <c r="D22" s="139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E22" s="136">
         <v>44371</v>
@@ -16702,7 +16800,7 @@
         <v>11366</v>
       </c>
       <c r="D23" s="139" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E23" s="136">
         <v>44372</v>
@@ -16758,10 +16856,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="548" t="s">
-        <v>565</v>
-      </c>
-      <c r="AF23" s="549"/>
+      <c r="AE23" s="545" t="s">
+        <v>564</v>
+      </c>
+      <c r="AF23" s="546"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -16776,7 +16874,7 @@
         <v>2308</v>
       </c>
       <c r="D24" s="139" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E24" s="136">
         <v>44373</v>
@@ -16796,7 +16894,7 @@
         <v>44373</v>
       </c>
       <c r="K24" s="295" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L24" s="296">
         <f>15022.3+400+4000</f>
@@ -16849,7 +16947,7 @@
         <v>12678</v>
       </c>
       <c r="D25" s="139" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E25" s="136">
         <v>44374</v>
@@ -16905,11 +17003,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="550" t="s">
-        <v>566</v>
-      </c>
-      <c r="AF25" s="551"/>
-      <c r="AG25" s="554">
+      <c r="AE25" s="547" t="s">
+        <v>565</v>
+      </c>
+      <c r="AF25" s="548"/>
+      <c r="AG25" s="551">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -16923,7 +17021,7 @@
         <v>9300</v>
       </c>
       <c r="D26" s="139" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E26" s="136">
         <v>44375</v>
@@ -16980,9 +17078,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="552"/>
-      <c r="AF26" s="553"/>
-      <c r="AG26" s="555"/>
+      <c r="AE26" s="549"/>
+      <c r="AF26" s="550"/>
+      <c r="AG26" s="552"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
@@ -16993,7 +17091,7 @@
         <v>3467</v>
       </c>
       <c r="D27" s="141" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E27" s="136">
         <v>44376</v>
@@ -17060,7 +17158,7 @@
         <v>2020</v>
       </c>
       <c r="D28" s="141" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E28" s="136">
         <v>44377</v>
@@ -17157,10 +17255,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="544" t="s">
-        <v>563</v>
-      </c>
-      <c r="AC29" s="546">
+      <c r="AB29" s="541" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC29" s="543">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -17180,10 +17278,10 @@
       <c r="H30" s="138"/>
       <c r="I30" s="69"/>
       <c r="J30" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K30" s="356" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L30" s="357">
         <f>189+999</f>
@@ -17196,11 +17294,11 @@
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="531">
+      <c r="P30" s="528">
         <f>SUM(P5:P29)</f>
         <v>-163726</v>
       </c>
-      <c r="Q30" s="531"/>
+      <c r="Q30" s="528"/>
       <c r="R30" s="7">
         <v>0</v>
       </c>
@@ -17214,8 +17312,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="545"/>
-      <c r="AC30" s="547"/>
+      <c r="AB30" s="542"/>
+      <c r="AC30" s="544"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -17238,7 +17336,7 @@
       <c r="H31" s="138"/>
       <c r="I31" s="69"/>
       <c r="J31" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K31" s="144" t="s">
         <v>211</v>
@@ -17293,10 +17391,10 @@
       <c r="H32" s="138"/>
       <c r="I32" s="69"/>
       <c r="J32" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K32" s="356" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L32" s="357">
         <v>22100</v>
@@ -17345,10 +17443,10 @@
       <c r="H33" s="138"/>
       <c r="I33" s="69"/>
       <c r="J33" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K33" s="144" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L33" s="358">
         <v>41873</v>
@@ -17376,7 +17474,7 @@
       <c r="X33" s="221"/>
       <c r="Y33" s="207"/>
       <c r="AC33" s="386" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AD33" s="387"/>
       <c r="AE33" s="387"/>
@@ -17401,10 +17499,10 @@
       <c r="H34" s="138"/>
       <c r="I34" s="69"/>
       <c r="J34" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K34" s="359" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L34" s="360">
         <v>9014.9699999999993</v>
@@ -17432,7 +17530,7 @@
       <c r="X34" s="221"/>
       <c r="Y34" s="207"/>
       <c r="AC34" s="388" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AD34" s="99"/>
       <c r="AE34" s="99"/>
@@ -17457,10 +17555,10 @@
       <c r="H35" s="138"/>
       <c r="I35" s="69"/>
       <c r="J35" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K35" s="144" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L35" s="358">
         <v>1332</v>
@@ -17509,7 +17607,7 @@
       <c r="H36" s="138"/>
       <c r="I36" s="69"/>
       <c r="J36" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K36" s="359" t="s">
         <v>136</v>
@@ -17560,10 +17658,10 @@
       <c r="H37" s="138"/>
       <c r="I37" s="69"/>
       <c r="J37" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K37" s="362" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L37" s="363">
         <v>55555.55</v>
@@ -17588,7 +17686,7 @@
       <c r="X37" s="221"/>
       <c r="Y37" s="207"/>
       <c r="AC37" s="321" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AD37" s="338"/>
       <c r="AE37" s="338"/>
@@ -17613,10 +17711,10 @@
       <c r="H38" s="138"/>
       <c r="I38" s="69"/>
       <c r="J38" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K38" s="362" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L38" s="363">
         <v>14335.75</v>
@@ -17641,7 +17739,7 @@
       <c r="X38" s="221"/>
       <c r="Y38" s="207"/>
       <c r="AC38" s="321" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AD38" s="338"/>
       <c r="AE38" s="338"/>
@@ -17658,7 +17756,7 @@
         <v>11400</v>
       </c>
       <c r="D39" s="242" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E39" s="136"/>
       <c r="F39" s="239"/>
@@ -17666,10 +17764,10 @@
       <c r="H39" s="138"/>
       <c r="I39" s="69"/>
       <c r="J39" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K39" s="361" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L39" s="358">
         <v>1976.64</v>
@@ -17694,7 +17792,7 @@
       <c r="X39" s="221"/>
       <c r="Y39" s="207"/>
       <c r="AC39" s="321" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AD39" s="338"/>
       <c r="AE39" s="338"/>
@@ -17713,10 +17811,10 @@
       <c r="H40" s="138"/>
       <c r="I40" s="69"/>
       <c r="J40" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K40" s="144" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L40" s="358">
         <f>399+399</f>
@@ -17742,7 +17840,7 @@
       <c r="X40" s="221"/>
       <c r="Y40" s="207"/>
       <c r="AC40" s="321" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AD40" s="338"/>
       <c r="AE40" s="338"/>
@@ -17761,10 +17859,10 @@
       <c r="H41" s="138"/>
       <c r="I41" s="69"/>
       <c r="J41" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K41" s="144" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L41" s="358">
         <v>1032.4000000000001</v>
@@ -17789,7 +17887,7 @@
       <c r="X41" s="221"/>
       <c r="Y41" s="207"/>
       <c r="AC41" s="321" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AD41" s="338"/>
       <c r="AE41" s="338"/>
@@ -17809,10 +17907,10 @@
       <c r="H42" s="138"/>
       <c r="I42" s="69"/>
       <c r="J42" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K42" s="144" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L42" s="358">
         <f>398.99+422.1+498.99+398.99</f>
@@ -17855,7 +17953,7 @@
       <c r="H43" s="138"/>
       <c r="I43" s="69"/>
       <c r="J43" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K43" s="144" t="s">
         <v>132</v>
@@ -17901,10 +17999,10 @@
       <c r="H44" s="138"/>
       <c r="I44" s="69"/>
       <c r="J44" s="233" t="s">
-        <v>569</v>
-      </c>
-      <c r="K44" s="464" t="s">
-        <v>712</v>
+        <v>568</v>
+      </c>
+      <c r="K44" s="461" t="s">
+        <v>711</v>
       </c>
       <c r="L44" s="358">
         <v>1237.3399999999999</v>
@@ -17949,10 +18047,10 @@
       <c r="H45" s="138"/>
       <c r="I45" s="69"/>
       <c r="J45" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K45" s="228" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L45" s="358">
         <v>4096.47</v>
@@ -18577,21 +18675,21 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="496" t="s">
+      <c r="H64" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="497"/>
+      <c r="I64" s="494"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="498">
+      <c r="K64" s="495">
         <f>I62+L62</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L64" s="499"/>
-      <c r="M64" s="500">
+      <c r="L64" s="496"/>
+      <c r="M64" s="497">
         <f>M62+N62</f>
         <v>2936130</v>
       </c>
-      <c r="N64" s="501"/>
+      <c r="N64" s="498"/>
       <c r="O64" s="367"/>
       <c r="P64" s="367"/>
       <c r="Q64" s="367"/>
@@ -18606,40 +18704,40 @@
       <c r="AG64" s="327"/>
     </row>
     <row r="65" spans="2:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="508" t="s">
+      <c r="D65" s="505" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="508"/>
+      <c r="E65" s="505"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2702101.7199999997</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="R65" s="487">
+      <c r="R65" s="484">
         <f>R62+S62</f>
         <v>3138957.44</v>
       </c>
-      <c r="S65" s="488"/>
+      <c r="S65" s="485"/>
       <c r="U65" s="50"/>
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="489" t="s">
-        <v>503</v>
-      </c>
-      <c r="E66" s="489"/>
+      <c r="D66" s="486" t="s">
+        <v>502</v>
+      </c>
+      <c r="E66" s="486"/>
       <c r="F66" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I66" s="490" t="s">
+      <c r="I66" s="487" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="491"/>
-      <c r="K66" s="492">
+      <c r="J66" s="488"/>
+      <c r="K66" s="489">
         <f>F68+F69+F70</f>
         <v>381077.48999999953</v>
       </c>
-      <c r="L66" s="493"/>
+      <c r="L66" s="490"/>
       <c r="R66" s="50"/>
       <c r="U66" s="107"/>
     </row>
@@ -18673,11 +18771,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="494">
+      <c r="K68" s="491">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L68" s="495"/>
+      <c r="L68" s="492"/>
       <c r="M68" s="116"/>
       <c r="R68" s="50"/>
       <c r="S68" s="7"/>
@@ -18701,22 +18799,22 @@
       <c r="C70" s="119">
         <v>44377</v>
       </c>
-      <c r="D70" s="502" t="s">
+      <c r="D70" s="499" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="503"/>
+      <c r="E70" s="500"/>
       <c r="F70" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I70" s="504" t="s">
+      <c r="I70" s="501" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="505"/>
-      <c r="K70" s="506">
+      <c r="J70" s="502"/>
+      <c r="K70" s="503">
         <f>K66+K68</f>
         <v>125313.09999999951</v>
       </c>
-      <c r="L70" s="507"/>
+      <c r="L70" s="504"/>
       <c r="R70" s="50"/>
       <c r="S70" s="7"/>
       <c r="U70" s="121"/>
@@ -18732,14 +18830,14 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="532" t="s">
-        <v>611</v>
-      </c>
-      <c r="J72" s="533"/>
-      <c r="K72" s="536">
+      <c r="I72" s="529" t="s">
+        <v>610</v>
+      </c>
+      <c r="J72" s="530"/>
+      <c r="K72" s="533">
         <v>163726</v>
       </c>
-      <c r="L72" s="537"/>
+      <c r="L72" s="534"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
@@ -18748,10 +18846,10 @@
       <c r="C73" s="128"/>
       <c r="D73" s="129"/>
       <c r="E73" s="7"/>
-      <c r="I73" s="534"/>
-      <c r="J73" s="535"/>
-      <c r="K73" s="538"/>
-      <c r="L73" s="539"/>
+      <c r="I73" s="531"/>
+      <c r="J73" s="532"/>
+      <c r="K73" s="535"/>
+      <c r="L73" s="536"/>
       <c r="M73" s="2"/>
       <c r="N73" s="60"/>
       <c r="O73" s="165"/>
@@ -18803,7 +18901,7 @@
       <c r="C76" s="130"/>
       <c r="E76" s="7"/>
       <c r="M76" s="4"/>
-      <c r="AC76" s="556"/>
+      <c r="AC76" s="553"/>
       <c r="AD76" s="342"/>
       <c r="AE76" s="342"/>
       <c r="AF76" s="342"/>
@@ -18816,7 +18914,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="273"/>
       <c r="M77" s="4"/>
-      <c r="AC77" s="556"/>
+      <c r="AC77" s="553"/>
       <c r="AD77" s="342"/>
       <c r="AE77" s="342"/>
       <c r="AF77" s="342"/>
@@ -18956,8 +19054,8 @@
   </sheetPr>
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C29:C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18972,7 +19070,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="324" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1" s="175" t="s">
         <v>31</v>
@@ -19007,7 +19105,7 @@
         <v>44354</v>
       </c>
       <c r="B3" s="193" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C3" s="71">
         <v>14914</v>
@@ -19024,7 +19122,7 @@
         <v>44354</v>
       </c>
       <c r="B4" s="193" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C4" s="71">
         <v>145723.43</v>
@@ -19042,7 +19140,7 @@
         <v>44355</v>
       </c>
       <c r="B5" s="193" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C5" s="71">
         <v>146885.79999999999</v>
@@ -19059,7 +19157,7 @@
         <v>44356</v>
       </c>
       <c r="B6" s="193" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C6" s="71">
         <v>136676.26999999999</v>
@@ -19076,7 +19174,7 @@
         <v>44357</v>
       </c>
       <c r="B7" s="193" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C7" s="71">
         <v>23247.1</v>
@@ -19093,7 +19191,7 @@
         <v>44357</v>
       </c>
       <c r="B8" s="193" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C8" s="71">
         <v>46652.41</v>
@@ -19110,7 +19208,7 @@
         <v>44358</v>
       </c>
       <c r="B9" s="193" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C9" s="71">
         <v>88338.67</v>
@@ -19127,7 +19225,7 @@
         <v>44358</v>
       </c>
       <c r="B10" s="193" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C10" s="71">
         <v>15925</v>
@@ -19149,7 +19247,7 @@
         <v>44359</v>
       </c>
       <c r="B11" s="193" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C11" s="71">
         <v>49175.7</v>
@@ -19166,7 +19264,7 @@
         <v>44359</v>
       </c>
       <c r="B12" s="193" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C12" s="71">
         <v>269193.39</v>
@@ -19183,7 +19281,7 @@
         <v>44361</v>
       </c>
       <c r="B13" s="193" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C13" s="71">
         <v>133276.4</v>
@@ -19204,7 +19302,7 @@
         <v>44363</v>
       </c>
       <c r="B14" s="193" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C14" s="71">
         <v>160696.85</v>
@@ -19221,7 +19319,7 @@
         <v>44363</v>
       </c>
       <c r="B15" s="193" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C15" s="71">
         <v>18956</v>
@@ -19238,7 +19336,7 @@
         <v>44364</v>
       </c>
       <c r="B16" s="193" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C16" s="71">
         <v>6575.8</v>
@@ -19255,7 +19353,7 @@
         <v>44365</v>
       </c>
       <c r="B17" s="193" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C17" s="71">
         <v>174890.81</v>
@@ -19272,7 +19370,7 @@
         <v>44365</v>
       </c>
       <c r="B18" s="193" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C18" s="71">
         <v>63472.4</v>
@@ -19289,7 +19387,7 @@
         <v>44365</v>
       </c>
       <c r="B19" s="193" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C19" s="71">
         <v>24495</v>
@@ -19310,7 +19408,7 @@
         <v>44366</v>
       </c>
       <c r="B20" s="193" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C20" s="71">
         <v>219692.87</v>
@@ -19327,7 +19425,7 @@
         <v>44367</v>
       </c>
       <c r="B21" s="193" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C21" s="71">
         <v>9938.2999999999993</v>
@@ -19344,7 +19442,7 @@
         <v>44368</v>
       </c>
       <c r="B22" s="193" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C22" s="71">
         <v>120083.9</v>
@@ -19362,7 +19460,7 @@
         <v>44370</v>
       </c>
       <c r="B23" s="193" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C23" s="71">
         <v>124811.6</v>
@@ -19379,7 +19477,7 @@
         <v>44371</v>
       </c>
       <c r="B24" s="193" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C24" s="71">
         <v>130998.49</v>
@@ -19396,7 +19494,7 @@
         <v>44372</v>
       </c>
       <c r="B25" s="193" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C25" s="71">
         <v>1548</v>
@@ -19413,7 +19511,7 @@
         <v>44372</v>
       </c>
       <c r="B26" s="193" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C26" s="71">
         <v>32828.800000000003</v>
@@ -19434,7 +19532,7 @@
         <v>44373</v>
       </c>
       <c r="B27" s="193" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C27" s="71">
         <v>182799.1</v>
@@ -19451,7 +19549,7 @@
         <v>44373</v>
       </c>
       <c r="B28" s="193" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C28" s="71">
         <v>100700.1</v>
@@ -19468,7 +19566,7 @@
         <v>44376</v>
       </c>
       <c r="B29" s="193" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C29" s="71">
         <v>163352.95999999999</v>
@@ -19485,7 +19583,7 @@
         <v>44377</v>
       </c>
       <c r="B30" s="193" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C30" s="71">
         <v>112159.6</v>
@@ -19503,7 +19601,7 @@
         <v>44377</v>
       </c>
       <c r="B31" s="193" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C31" s="71">
         <v>2812.2</v>
@@ -20278,25 +20376,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="557" t="s">
-        <v>530</v>
-      </c>
-      <c r="C1" s="509" t="s">
-        <v>504</v>
-      </c>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
-      <c r="K1" s="509"/>
+      <c r="B1" s="554" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="506" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="506"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="555"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -20306,27 +20404,27 @@
       <c r="L2" s="12"/>
       <c r="M2" s="3"/>
       <c r="N2" s="6"/>
-      <c r="Q2" s="540" t="s">
-        <v>597</v>
-      </c>
-      <c r="R2" s="540"/>
-      <c r="S2" s="540"/>
-      <c r="T2" s="540"/>
-      <c r="U2" s="540"/>
-      <c r="V2" s="540"/>
+      <c r="Q2" s="537" t="s">
+        <v>596</v>
+      </c>
+      <c r="R2" s="537"/>
+      <c r="S2" s="537"/>
+      <c r="T2" s="537"/>
+      <c r="U2" s="537"/>
+      <c r="V2" s="537"/>
     </row>
     <row r="3" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="510" t="s">
+      <c r="B3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="511"/>
+      <c r="C3" s="508"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="512"/>
+      <c r="I3" s="509"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -20334,12 +20432,12 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="Q3" s="540"/>
-      <c r="R3" s="540"/>
-      <c r="S3" s="540"/>
-      <c r="T3" s="540"/>
-      <c r="U3" s="540"/>
-      <c r="V3" s="540"/>
+      <c r="Q3" s="537"/>
+      <c r="R3" s="537"/>
+      <c r="S3" s="537"/>
+      <c r="T3" s="537"/>
+      <c r="U3" s="537"/>
+      <c r="V3" s="537"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -20352,14 +20450,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="513" t="s">
+      <c r="E4" s="510" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="514"/>
-      <c r="H4" s="515" t="s">
+      <c r="F4" s="511"/>
+      <c r="H4" s="512" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="516"/>
+      <c r="I4" s="513"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -20371,16 +20469,16 @@
       </c>
       <c r="O4" s="365"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="541" t="s">
-        <v>528</v>
-      </c>
-      <c r="R4" s="542"/>
+      <c r="Q4" s="538" t="s">
+        <v>527</v>
+      </c>
+      <c r="R4" s="539"/>
       <c r="S4" s="99"/>
-      <c r="T4" s="543" t="s">
-        <v>568</v>
-      </c>
-      <c r="U4" s="543"/>
-      <c r="V4" s="543"/>
+      <c r="T4" s="540" t="s">
+        <v>567</v>
+      </c>
+      <c r="U4" s="540"/>
+      <c r="V4" s="540"/>
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20419,7 +20517,7 @@
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="318" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q5" s="347">
         <v>44354</v>
@@ -20442,7 +20540,7 @@
         <v>9200</v>
       </c>
       <c r="D6" s="406" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E6" s="404">
         <v>44355</v>
@@ -20476,7 +20574,7 @@
       </c>
       <c r="S6" s="99"/>
       <c r="T6" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U6" s="299">
         <v>44356</v>
@@ -20495,7 +20593,7 @@
         <v>10718</v>
       </c>
       <c r="D7" s="407" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E7" s="404">
         <v>44356</v>
@@ -20513,7 +20611,7 @@
         <v>44356</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L7" s="46">
         <v>679</v>
@@ -20535,7 +20633,7 @@
       </c>
       <c r="S7" s="99"/>
       <c r="T7" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U7" s="299">
         <v>44357</v>
@@ -20554,7 +20652,7 @@
         <v>4966</v>
       </c>
       <c r="D8" s="408" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E8" s="404">
         <v>44357</v>
@@ -20588,7 +20686,7 @@
       </c>
       <c r="S8" s="99"/>
       <c r="T8" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U8" s="299">
         <v>44368</v>
@@ -20638,7 +20736,7 @@
       </c>
       <c r="S9" s="99"/>
       <c r="T9" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U9" s="299">
         <v>44369</v>
@@ -20657,7 +20755,7 @@
         <v>4654</v>
       </c>
       <c r="D10" s="407" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E10" s="404">
         <v>44359</v>
@@ -20675,7 +20773,7 @@
         <v>44359</v>
       </c>
       <c r="K10" s="410" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L10" s="53">
         <f>16368.46+400+4000</f>
@@ -20697,7 +20795,7 @@
       </c>
       <c r="S10" s="99"/>
       <c r="T10" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="U10" s="299">
         <v>44370</v>
@@ -20716,7 +20814,7 @@
         <v>17685</v>
       </c>
       <c r="D11" s="406" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E11" s="404">
         <v>44360</v>
@@ -20749,7 +20847,7 @@
       </c>
       <c r="S11" s="99"/>
       <c r="T11" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U11" s="299">
         <v>44358</v>
@@ -20768,7 +20866,7 @@
         <v>9388</v>
       </c>
       <c r="D12" s="406" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E12" s="404">
         <v>44361</v>
@@ -20801,7 +20899,7 @@
       </c>
       <c r="S12" s="99"/>
       <c r="T12" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U12" s="299">
         <v>44361</v>
@@ -20820,7 +20918,7 @@
         <v>3514</v>
       </c>
       <c r="D13" s="408" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="404">
         <v>44362</v>
@@ -20860,7 +20958,7 @@
       </c>
       <c r="S13" s="99"/>
       <c r="T13" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U13" s="299">
         <v>44362</v>
@@ -20879,7 +20977,7 @@
         <v>9111</v>
       </c>
       <c r="D14" s="407" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E14" s="404">
         <v>44363</v>
@@ -20912,7 +21010,7 @@
       </c>
       <c r="S14" s="99"/>
       <c r="T14" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U14" s="299">
         <v>44363</v>
@@ -20931,7 +21029,7 @@
         <v>8755</v>
       </c>
       <c r="D15" s="406" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E15" s="404">
         <v>44364</v>
@@ -20964,7 +21062,7 @@
       </c>
       <c r="S15" s="99"/>
       <c r="T15" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U15" s="299">
         <v>44364</v>
@@ -20983,7 +21081,7 @@
         <v>10454</v>
       </c>
       <c r="D16" s="406" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E16" s="404">
         <v>44365</v>
@@ -21016,7 +21114,7 @@
       </c>
       <c r="S16" s="99"/>
       <c r="T16" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U16" s="299">
         <v>44365</v>
@@ -21053,7 +21151,7 @@
         <v>44366</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L17" s="53">
         <f>16468.46+400+4000</f>
@@ -21075,7 +21173,7 @@
       </c>
       <c r="S17" s="99"/>
       <c r="T17" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U17" s="299">
         <v>44371</v>
@@ -21094,7 +21192,7 @@
         <v>26412</v>
       </c>
       <c r="D18" s="406" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E18" s="404">
         <v>44367</v>
@@ -21127,7 +21225,7 @@
       </c>
       <c r="S18" s="99"/>
       <c r="T18" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U18" s="299">
         <v>44372</v>
@@ -21179,7 +21277,7 @@
       </c>
       <c r="S19" s="99"/>
       <c r="T19" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U19" s="299">
         <v>44376</v>
@@ -21232,7 +21330,7 @@
       </c>
       <c r="S20" s="99"/>
       <c r="T20" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U20" s="299">
         <v>44378</v>
@@ -21251,7 +21349,7 @@
         <v>6965</v>
       </c>
       <c r="D21" s="406" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E21" s="404">
         <v>44370</v>
@@ -21299,7 +21397,7 @@
         <v>1742</v>
       </c>
       <c r="D22" s="406" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E22" s="404">
         <v>44371</v>
@@ -21347,7 +21445,7 @@
         <v>11366</v>
       </c>
       <c r="D23" s="406" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E23" s="404">
         <v>44372</v>
@@ -21379,10 +21477,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="99"/>
-      <c r="T23" s="548" t="s">
-        <v>565</v>
-      </c>
-      <c r="U23" s="549"/>
+      <c r="T23" s="545" t="s">
+        <v>564</v>
+      </c>
+      <c r="U23" s="546"/>
       <c r="V23" s="339">
         <f>SUM(V6:V22)</f>
         <v>2323600</v>
@@ -21398,7 +21496,7 @@
         <v>2308</v>
       </c>
       <c r="D24" s="406" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E24" s="404">
         <v>44373</v>
@@ -21417,7 +21515,7 @@
         <v>44373</v>
       </c>
       <c r="K24" s="419" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L24" s="296">
         <f>15022.3+400+4000</f>
@@ -21452,7 +21550,7 @@
         <v>12678</v>
       </c>
       <c r="D25" s="406" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E25" s="404">
         <v>44374</v>
@@ -21486,11 +21584,11 @@
         <v>138607</v>
       </c>
       <c r="S25" s="99"/>
-      <c r="T25" s="550" t="s">
-        <v>566</v>
-      </c>
-      <c r="U25" s="551"/>
-      <c r="V25" s="554">
+      <c r="T25" s="547" t="s">
+        <v>565</v>
+      </c>
+      <c r="U25" s="548"/>
+      <c r="V25" s="551">
         <f>R29-V23</f>
         <v>163726</v>
       </c>
@@ -21505,7 +21603,7 @@
         <v>9300</v>
       </c>
       <c r="D26" s="406" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E26" s="404">
         <v>44375</v>
@@ -21539,9 +21637,9 @@
         <v>107480</v>
       </c>
       <c r="S26" s="99"/>
-      <c r="T26" s="552"/>
-      <c r="U26" s="553"/>
-      <c r="V26" s="555"/>
+      <c r="T26" s="549"/>
+      <c r="U26" s="550"/>
+      <c r="V26" s="552"/>
       <c r="W26" s="99"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21553,7 +21651,7 @@
         <v>3467</v>
       </c>
       <c r="D27" s="408" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E27" s="404">
         <v>44376</v>
@@ -21601,7 +21699,7 @@
         <v>2020</v>
       </c>
       <c r="D28" s="408" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E28" s="404">
         <v>44377</v>
@@ -21664,10 +21762,10 @@
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="29"/>
-      <c r="Q29" s="544" t="s">
-        <v>563</v>
-      </c>
-      <c r="R29" s="546">
+      <c r="Q29" s="541" t="s">
+        <v>562</v>
+      </c>
+      <c r="R29" s="543">
         <f>SUM(R5:R28)</f>
         <v>2487326</v>
       </c>
@@ -21687,10 +21785,10 @@
       <c r="H30" s="405"/>
       <c r="I30" s="69"/>
       <c r="J30" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K30" s="423" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L30" s="357">
         <f>189+999</f>
@@ -21704,8 +21802,8 @@
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="373"/>
-      <c r="Q30" s="545"/>
-      <c r="R30" s="547"/>
+      <c r="Q30" s="542"/>
+      <c r="R30" s="544"/>
       <c r="S30" s="99"/>
       <c r="T30" s="99"/>
       <c r="U30" s="99"/>
@@ -21728,7 +21826,7 @@
       <c r="H31" s="405"/>
       <c r="I31" s="69"/>
       <c r="J31" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K31" s="424" t="s">
         <v>211</v>
@@ -21769,10 +21867,10 @@
       <c r="H32" s="405"/>
       <c r="I32" s="69"/>
       <c r="J32" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K32" s="423" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L32" s="357">
         <v>22100</v>
@@ -21806,10 +21904,10 @@
       <c r="H33" s="405"/>
       <c r="I33" s="69"/>
       <c r="J33" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K33" s="424" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L33" s="358">
         <v>41873</v>
@@ -21843,10 +21941,10 @@
       <c r="H34" s="405"/>
       <c r="I34" s="69"/>
       <c r="J34" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K34" s="425" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L34" s="360">
         <v>9014.9699999999993</v>
@@ -21880,10 +21978,10 @@
       <c r="H35" s="405"/>
       <c r="I35" s="69"/>
       <c r="J35" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K35" s="424" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L35" s="358">
         <v>1332</v>
@@ -21917,7 +22015,7 @@
       <c r="H36" s="405"/>
       <c r="I36" s="69"/>
       <c r="J36" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K36" s="425" t="s">
         <v>136</v>
@@ -21954,10 +22052,10 @@
       <c r="H37" s="405"/>
       <c r="I37" s="69"/>
       <c r="J37" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K37" s="362" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L37" s="363">
         <v>55555.55</v>
@@ -21989,10 +22087,10 @@
       <c r="H38" s="405"/>
       <c r="I38" s="69"/>
       <c r="J38" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K38" s="362" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L38" s="363">
         <v>14335.75</v>
@@ -22017,17 +22115,17 @@
         <v>11400</v>
       </c>
       <c r="D39" s="428" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E39" s="404"/>
       <c r="F39" s="429"/>
       <c r="H39" s="405"/>
       <c r="I39" s="69"/>
       <c r="J39" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K39" s="430" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L39" s="358">
         <v>1976.64</v>
@@ -22053,10 +22151,10 @@
       <c r="H40" s="405"/>
       <c r="I40" s="69"/>
       <c r="J40" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K40" s="424" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L40" s="358">
         <f>399+399</f>
@@ -22083,10 +22181,10 @@
       <c r="H41" s="405"/>
       <c r="I41" s="69"/>
       <c r="J41" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K41" s="424" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L41" s="358">
         <v>1032.4000000000001</v>
@@ -22112,10 +22210,10 @@
       <c r="H42" s="405"/>
       <c r="I42" s="69"/>
       <c r="J42" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K42" s="424" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L42" s="358">
         <f>398.99+422.1+498.99+398.99</f>
@@ -22142,7 +22240,7 @@
       <c r="H43" s="405"/>
       <c r="I43" s="69"/>
       <c r="J43" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K43" s="424" t="s">
         <v>132</v>
@@ -22172,10 +22270,10 @@
       <c r="H44" s="405"/>
       <c r="I44" s="69"/>
       <c r="J44" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K44" s="435" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L44" s="358">
         <v>1237.3399999999999</v>
@@ -22203,10 +22301,10 @@
       <c r="H45" s="405"/>
       <c r="I45" s="69"/>
       <c r="J45" s="233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K45" s="435" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L45" s="358">
         <v>4096.47</v>
@@ -22330,21 +22428,21 @@
       <c r="A50" s="60"/>
       <c r="B50" s="100"/>
       <c r="C50" s="4"/>
-      <c r="H50" s="496" t="s">
+      <c r="H50" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="497"/>
+      <c r="I50" s="494"/>
       <c r="J50" s="101"/>
-      <c r="K50" s="498">
+      <c r="K50" s="495">
         <f>I48+L48</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L50" s="499"/>
-      <c r="M50" s="500">
+      <c r="L50" s="496"/>
+      <c r="M50" s="497">
         <f>M48+N48</f>
         <v>612530</v>
       </c>
-      <c r="N50" s="501"/>
+      <c r="N50" s="498"/>
       <c r="O50" s="367"/>
       <c r="P50" s="102"/>
       <c r="Q50" s="320"/>
@@ -22356,10 +22454,10 @@
       <c r="W50" s="327"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D51" s="508" t="s">
+      <c r="D51" s="505" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="508"/>
+      <c r="E51" s="505"/>
       <c r="F51" s="103">
         <f>F48-K50-C48</f>
         <v>2702101.7199999997</v>
@@ -22368,22 +22466,22 @@
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D52" s="489" t="s">
-        <v>503</v>
-      </c>
-      <c r="E52" s="489"/>
+      <c r="D52" s="486" t="s">
+        <v>502</v>
+      </c>
+      <c r="E52" s="486"/>
       <c r="F52" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I52" s="490" t="s">
+      <c r="I52" s="487" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="491"/>
-      <c r="K52" s="492">
+      <c r="J52" s="488"/>
+      <c r="K52" s="489">
         <f>F54+F55+F56</f>
         <v>381077.72999999952</v>
       </c>
-      <c r="L52" s="493"/>
+      <c r="L52" s="490"/>
     </row>
     <row r="53" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D53" s="108"/>
@@ -22412,11 +22510,11 @@
         <v>21</v>
       </c>
       <c r="J54" s="115"/>
-      <c r="K54" s="494">
+      <c r="K54" s="491">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L54" s="495"/>
+      <c r="L54" s="492"/>
       <c r="M54" s="116"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22434,22 +22532,22 @@
       <c r="C56" s="119">
         <v>44377</v>
       </c>
-      <c r="D56" s="502" t="s">
+      <c r="D56" s="499" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="503"/>
+      <c r="E56" s="500"/>
       <c r="F56" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I56" s="504" t="s">
+      <c r="I56" s="501" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="505"/>
-      <c r="K56" s="506">
+      <c r="J56" s="502"/>
+      <c r="K56" s="503">
         <f>K52+K54</f>
         <v>125313.3399999995</v>
       </c>
-      <c r="L56" s="507"/>
+      <c r="L56" s="504"/>
     </row>
     <row r="57" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C57" s="122"/>
@@ -22505,7 +22603,7 @@
       <c r="C62" s="130"/>
       <c r="E62" s="7"/>
       <c r="M62" s="4"/>
-      <c r="R62" s="556"/>
+      <c r="R62" s="553"/>
       <c r="S62" s="379"/>
       <c r="T62" s="379"/>
       <c r="U62" s="379"/>
@@ -22518,7 +22616,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="273"/>
       <c r="M63" s="4"/>
-      <c r="R63" s="556"/>
+      <c r="R63" s="553"/>
       <c r="S63" s="379"/>
       <c r="T63" s="379"/>
       <c r="U63" s="379"/>
@@ -22635,11 +22733,11 @@
   </sheetPr>
   <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="L56" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M75" sqref="M75"/>
+      <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22655,8 +22753,8 @@
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="8" customWidth="1"/>
     <col min="13" max="13" width="18.140625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="6" customWidth="1"/>
     <col min="16" max="16" width="20" style="6" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" style="6" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -22674,20 +22772,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="557" t="s">
-        <v>530</v>
-      </c>
-      <c r="C1" s="509" t="s">
-        <v>504</v>
-      </c>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
-      <c r="K1" s="509"/>
+      <c r="B1" s="554" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="506" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="506"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -22697,7 +22795,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="558"/>
+      <c r="B2" s="555"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -22716,27 +22814,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="540" t="s">
-        <v>597</v>
-      </c>
-      <c r="AC2" s="540"/>
-      <c r="AD2" s="540"/>
-      <c r="AE2" s="540"/>
-      <c r="AF2" s="540"/>
-      <c r="AG2" s="540"/>
+      <c r="AB2" s="537" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC2" s="537"/>
+      <c r="AD2" s="537"/>
+      <c r="AE2" s="537"/>
+      <c r="AF2" s="537"/>
+      <c r="AG2" s="537"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="510" t="s">
+      <c r="B3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="511"/>
+      <c r="C3" s="508"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="512"/>
+      <c r="I3" s="509"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -22744,13 +22842,13 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="559" t="s">
-        <v>664</v>
-      </c>
-      <c r="Q3" s="561" t="s">
-        <v>666</v>
-      </c>
-      <c r="S3" s="562"/>
+      <c r="P3" s="556" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q3" s="558" t="s">
+        <v>665</v>
+      </c>
+      <c r="S3" s="559"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -22760,12 +22858,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="540"/>
-      <c r="AC3" s="540"/>
-      <c r="AD3" s="540"/>
-      <c r="AE3" s="540"/>
-      <c r="AF3" s="540"/>
-      <c r="AG3" s="540"/>
+      <c r="AB3" s="537"/>
+      <c r="AC3" s="537"/>
+      <c r="AD3" s="537"/>
+      <c r="AE3" s="537"/>
+      <c r="AF3" s="537"/>
+      <c r="AG3" s="537"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -22778,28 +22876,28 @@
       <c r="D4" s="23">
         <v>44377</v>
       </c>
-      <c r="E4" s="513" t="s">
+      <c r="E4" s="510" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="514"/>
-      <c r="H4" s="560" t="s">
+      <c r="F4" s="511"/>
+      <c r="H4" s="557" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="516"/>
+      <c r="I4" s="513"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
       <c r="M4" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="559"/>
-      <c r="Q4" s="561"/>
+      <c r="P4" s="556"/>
+      <c r="Q4" s="558"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="562"/>
+      <c r="S4" s="559"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -22811,16 +22909,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="541" t="s">
-        <v>528</v>
-      </c>
-      <c r="AC4" s="542"/>
+      <c r="AB4" s="538" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC4" s="539"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="543" t="s">
-        <v>568</v>
-      </c>
-      <c r="AF4" s="543"/>
-      <c r="AG4" s="543"/>
+      <c r="AE4" s="540" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF4" s="540"/>
+      <c r="AG4" s="540"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -22852,7 +22950,7 @@
         <v>44378</v>
       </c>
       <c r="K5" s="157" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L5" s="6">
         <v>549</v>
@@ -22904,7 +23002,7 @@
         <v>20774</v>
       </c>
       <c r="D6" s="139" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E6" s="136">
         <v>44379</v>
@@ -22923,7 +23021,7 @@
         <v>44379</v>
       </c>
       <c r="K6" s="151" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L6" s="46">
         <v>10000</v>
@@ -22965,7 +23063,7 @@
       </c>
       <c r="AD6" s="99"/>
       <c r="AE6" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF6" s="299">
         <v>44356</v>
@@ -22983,7 +23081,7 @@
         <v>2495</v>
       </c>
       <c r="D7" s="140" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E7" s="136">
         <v>44380</v>
@@ -23002,7 +23100,7 @@
         <v>44380</v>
       </c>
       <c r="K7" s="310" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L7" s="46">
         <f>16330.7+400+4000</f>
@@ -23047,7 +23145,7 @@
       </c>
       <c r="AD7" s="99"/>
       <c r="AE7" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF7" s="299">
         <v>44357</v>
@@ -23065,7 +23163,7 @@
         <v>7764</v>
       </c>
       <c r="D8" s="141" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E8" s="136">
         <v>44381</v>
@@ -23086,7 +23184,7 @@
       <c r="M8" s="444">
         <v>112352</v>
       </c>
-      <c r="N8" s="457">
+      <c r="N8" s="456">
         <f>19938+722.5</f>
         <v>20660.5</v>
       </c>
@@ -23097,7 +23195,7 @@
       </c>
       <c r="Q8" s="447"/>
       <c r="R8" s="7">
-        <f t="shared" ref="R8:R50" si="1">C8+I8+M8+N8+L8</f>
+        <f t="shared" ref="R8:R43" si="1">C8+I8+M8+N8+L8</f>
         <v>141476.5</v>
       </c>
       <c r="S8" s="201">
@@ -23122,7 +23220,7 @@
       </c>
       <c r="AD8" s="99"/>
       <c r="AE8" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF8" s="299">
         <v>44368</v>
@@ -23140,7 +23238,7 @@
         <v>2850</v>
       </c>
       <c r="D9" s="141" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E9" s="136">
         <v>44382</v>
@@ -23195,7 +23293,7 @@
       </c>
       <c r="AD9" s="99"/>
       <c r="AE9" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF9" s="299">
         <v>44369</v>
@@ -23268,7 +23366,7 @@
       </c>
       <c r="AD10" s="99"/>
       <c r="AE10" s="343" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AF10" s="299">
         <v>44370</v>
@@ -23305,7 +23403,7 @@
         <v>44384</v>
       </c>
       <c r="K11" s="161" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L11" s="46">
         <v>7950</v>
@@ -23347,7 +23445,7 @@
       </c>
       <c r="AD11" s="99"/>
       <c r="AE11" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF11" s="299">
         <v>44358</v>
@@ -23365,7 +23463,7 @@
         <v>12686</v>
       </c>
       <c r="D12" s="139" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E12" s="136">
         <v>44385</v>
@@ -23386,7 +23484,7 @@
       <c r="M12" s="444">
         <v>62018</v>
       </c>
-      <c r="N12" s="457">
+      <c r="N12" s="456">
         <f>29872+165</f>
         <v>30037</v>
       </c>
@@ -23421,7 +23519,7 @@
       </c>
       <c r="AD12" s="99"/>
       <c r="AE12" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF12" s="299">
         <v>44361</v>
@@ -23439,7 +23537,7 @@
         <v>9887</v>
       </c>
       <c r="D13" s="141" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E13" s="136">
         <v>44386</v>
@@ -23458,7 +23556,7 @@
         <v>44386</v>
       </c>
       <c r="K13" s="171" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L13" s="46">
         <v>10000</v>
@@ -23466,7 +23564,7 @@
       <c r="M13" s="444">
         <v>105176</v>
       </c>
-      <c r="N13" s="457">
+      <c r="N13" s="456">
         <f>28270+3975</f>
         <v>32245</v>
       </c>
@@ -23501,7 +23599,7 @@
       </c>
       <c r="AD13" s="99"/>
       <c r="AE13" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF13" s="299">
         <v>44362</v>
@@ -23538,7 +23636,7 @@
         <v>44387</v>
       </c>
       <c r="K14" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L14" s="46">
         <f>21785.63+400+1612.93</f>
@@ -23583,7 +23681,7 @@
       </c>
       <c r="AD14" s="99"/>
       <c r="AE14" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF14" s="299">
         <v>44363</v>
@@ -23601,7 +23699,7 @@
         <v>11165</v>
       </c>
       <c r="D15" s="139" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E15" s="136">
         <v>44388</v>
@@ -23653,7 +23751,7 @@
       </c>
       <c r="AD15" s="99"/>
       <c r="AE15" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF15" s="299">
         <v>44364</v>
@@ -23726,7 +23824,7 @@
       </c>
       <c r="AD16" s="99"/>
       <c r="AE16" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF16" s="299">
         <v>44365</v>
@@ -23744,7 +23842,7 @@
         <v>9760</v>
       </c>
       <c r="D17" s="141" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E17" s="136">
         <v>44390</v>
@@ -23799,7 +23897,7 @@
       </c>
       <c r="AD17" s="99"/>
       <c r="AE17" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF17" s="299">
         <v>44371</v>
@@ -23817,7 +23915,7 @@
         <v>3434</v>
       </c>
       <c r="D18" s="139" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E18" s="136">
         <v>44391</v>
@@ -23836,7 +23934,7 @@
         <v>44391</v>
       </c>
       <c r="K18" s="452" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L18" s="46">
         <v>5000</v>
@@ -23878,7 +23976,7 @@
       </c>
       <c r="AD18" s="99"/>
       <c r="AE18" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF18" s="299">
         <v>44372</v>
@@ -23896,7 +23994,7 @@
         <v>15895</v>
       </c>
       <c r="D19" s="139" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E19" s="136">
         <v>44392</v>
@@ -23917,7 +24015,7 @@
       <c r="M19" s="444">
         <v>126617</v>
       </c>
-      <c r="N19" s="457">
+      <c r="N19" s="456">
         <f>6334+120+18676</f>
         <v>25130</v>
       </c>
@@ -23952,7 +24050,7 @@
       </c>
       <c r="AD19" s="99"/>
       <c r="AE19" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF19" s="299">
         <v>44376</v>
@@ -23989,7 +24087,7 @@
         <v>44393</v>
       </c>
       <c r="K20" s="164" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L20" s="53">
         <v>10000</v>
@@ -24031,7 +24129,7 @@
       </c>
       <c r="AD20" s="99"/>
       <c r="AE20" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF20" s="299">
         <v>44378</v>
@@ -24068,7 +24166,7 @@
         <v>44394</v>
       </c>
       <c r="K21" s="162" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L21" s="53">
         <f>19755.82+400</f>
@@ -24127,7 +24225,7 @@
         <v>13103</v>
       </c>
       <c r="D22" s="139" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E22" s="136">
         <v>44395</v>
@@ -24196,7 +24294,7 @@
         <v>12998</v>
       </c>
       <c r="D23" s="139" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E23" s="136">
         <v>44396</v>
@@ -24215,7 +24313,7 @@
         <v>44396</v>
       </c>
       <c r="K23" s="279" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L23" s="53">
         <v>7219.18</v>
@@ -24223,7 +24321,7 @@
       <c r="M23" s="444">
         <v>106168.82</v>
       </c>
-      <c r="N23" s="457">
+      <c r="N23" s="456">
         <f>1512+6398</f>
         <v>7910</v>
       </c>
@@ -24257,10 +24355,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="548" t="s">
-        <v>565</v>
-      </c>
-      <c r="AF23" s="549"/>
+      <c r="AE23" s="545" t="s">
+        <v>564</v>
+      </c>
+      <c r="AF23" s="546"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -24275,7 +24373,7 @@
         <v>4367</v>
       </c>
       <c r="D24" s="139" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E24" s="136">
         <v>44397</v>
@@ -24392,11 +24490,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="550" t="s">
-        <v>566</v>
-      </c>
-      <c r="AF25" s="551"/>
-      <c r="AG25" s="554">
+      <c r="AE25" s="547" t="s">
+        <v>565</v>
+      </c>
+      <c r="AF25" s="548"/>
+      <c r="AG25" s="551">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -24410,7 +24508,7 @@
         <v>12316</v>
       </c>
       <c r="D26" s="139" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E26" s="136">
         <v>44399</v>
@@ -24431,7 +24529,7 @@
       <c r="M26" s="444">
         <v>77581</v>
       </c>
-      <c r="N26" s="457">
+      <c r="N26" s="456">
         <f>8000+14435</f>
         <v>22435</v>
       </c>
@@ -24465,9 +24563,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="552"/>
-      <c r="AF26" s="553"/>
-      <c r="AG26" s="555"/>
+      <c r="AE26" s="549"/>
+      <c r="AF26" s="550"/>
+      <c r="AG26" s="552"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -24478,7 +24576,7 @@
         <v>4891</v>
       </c>
       <c r="D27" s="141" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E27" s="136">
         <v>44400</v>
@@ -24497,7 +24595,7 @@
         <v>44400</v>
       </c>
       <c r="K27" s="282" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L27" s="75">
         <v>10000</v>
@@ -24551,7 +24649,7 @@
         <v>5163</v>
       </c>
       <c r="D28" s="141" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E28" s="136">
         <v>44401</v>
@@ -24570,7 +24668,7 @@
         <v>44401</v>
       </c>
       <c r="K28" s="151" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L28" s="75">
         <f>23312.72+400</f>
@@ -24623,7 +24721,7 @@
         <v>5021</v>
       </c>
       <c r="D29" s="143" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E29" s="136">
         <v>44402</v>
@@ -24666,10 +24764,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="544" t="s">
-        <v>563</v>
-      </c>
-      <c r="AC29" s="546">
+      <c r="AB29" s="541" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC29" s="543">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -24687,7 +24785,7 @@
         <v>7198</v>
       </c>
       <c r="D30" s="143" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E30" s="136">
         <v>44403</v>
@@ -24708,7 +24806,7 @@
       <c r="M30" s="444">
         <v>79889</v>
       </c>
-      <c r="N30" s="457">
+      <c r="N30" s="456">
         <f>3700+3309+3748</f>
         <v>10757</v>
       </c>
@@ -24732,8 +24830,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="545"/>
-      <c r="AC30" s="547"/>
+      <c r="AB30" s="542"/>
+      <c r="AC30" s="544"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -24748,7 +24846,7 @@
         <v>2905</v>
       </c>
       <c r="D31" s="242" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E31" s="136">
         <v>44404</v>
@@ -24804,8 +24902,8 @@
       <c r="C32" s="71">
         <v>10947</v>
       </c>
-      <c r="D32" s="454" t="s">
-        <v>689</v>
+      <c r="D32" s="453" t="s">
+        <v>688</v>
       </c>
       <c r="E32" s="136">
         <v>44405</v>
@@ -24902,7 +25000,7 @@
       <c r="X33" s="221"/>
       <c r="Y33" s="207"/>
       <c r="AC33" s="386" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AD33" s="387"/>
       <c r="AE33" s="387"/>
@@ -24918,8 +25016,8 @@
       <c r="C34" s="71">
         <v>17457</v>
       </c>
-      <c r="D34" s="454" t="s">
-        <v>690</v>
+      <c r="D34" s="453" t="s">
+        <v>689</v>
       </c>
       <c r="E34" s="136">
         <v>44407</v>
@@ -24937,8 +25035,8 @@
       <c r="J34" s="233">
         <v>44407</v>
       </c>
-      <c r="K34" s="455" t="s">
-        <v>691</v>
+      <c r="K34" s="454" t="s">
+        <v>690</v>
       </c>
       <c r="L34" s="360">
         <v>30000</v>
@@ -24967,7 +25065,7 @@
       <c r="X34" s="221"/>
       <c r="Y34" s="207"/>
       <c r="AC34" s="388" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AD34" s="99"/>
       <c r="AE34" s="99"/>
@@ -24984,7 +25082,7 @@
         <v>7664.5</v>
       </c>
       <c r="D35" s="267" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E35" s="136">
         <v>44408</v>
@@ -25003,7 +25101,7 @@
         <v>44408</v>
       </c>
       <c r="K35" s="144" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L35" s="358">
         <f>23312.72+400</f>
@@ -25012,12 +25110,12 @@
       <c r="M35" s="444">
         <v>173618.5</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35" s="334">
         <v>6530</v>
       </c>
-      <c r="O35" s="486"/>
+      <c r="O35" s="7"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="456">
+      <c r="Q35" s="455">
         <v>6913.72</v>
       </c>
       <c r="R35" s="7">
@@ -25044,35 +25142,35 @@
       <c r="B36" s="134">
         <v>44409</v>
       </c>
-      <c r="C36" s="459">
+      <c r="C36" s="71">
         <v>1054</v>
       </c>
-      <c r="D36" s="481" t="s">
-        <v>694</v>
+      <c r="D36" s="242" t="s">
+        <v>693</v>
       </c>
       <c r="E36" s="136">
         <v>44409</v>
       </c>
-      <c r="F36" s="459">
-        <v>148657</v>
+      <c r="F36" s="71">
+        <v>148357</v>
       </c>
       <c r="G36" s="137"/>
       <c r="H36" s="138">
         <v>44409</v>
       </c>
-      <c r="I36" s="484">
+      <c r="I36" s="69">
         <v>700</v>
       </c>
       <c r="J36" s="233"/>
       <c r="K36" s="359"/>
       <c r="L36" s="360"/>
-      <c r="M36" s="472">
+      <c r="M36" s="470">
         <v>129489</v>
       </c>
-      <c r="N36" s="453">
+      <c r="N36" s="334">
         <v>17114</v>
       </c>
-      <c r="O36" s="486"/>
+      <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="449"/>
       <c r="R36" s="7">
@@ -25098,35 +25196,36 @@
       <c r="B37" s="134">
         <v>44410</v>
       </c>
-      <c r="C37" s="459">
+      <c r="C37" s="71">
         <v>21609</v>
       </c>
-      <c r="D37" s="482" t="s">
-        <v>695</v>
+      <c r="D37" s="453" t="s">
+        <v>694</v>
       </c>
       <c r="E37" s="136">
         <v>44410</v>
       </c>
-      <c r="F37" s="483">
+      <c r="F37" s="265">
         <v>80970</v>
       </c>
       <c r="G37" s="137"/>
       <c r="H37" s="138">
         <v>44410</v>
       </c>
-      <c r="I37" s="484">
+      <c r="I37" s="69">
         <v>490</v>
       </c>
       <c r="J37" s="233"/>
       <c r="K37" s="144"/>
       <c r="L37" s="358"/>
-      <c r="M37" s="472">
-        <v>52395</v>
-      </c>
-      <c r="N37" s="453">
-        <v>6476</v>
-      </c>
-      <c r="O37" s="458"/>
+      <c r="M37" s="585">
+        <v>52350</v>
+      </c>
+      <c r="N37" s="456">
+        <f>6476+45</f>
+        <v>6521</v>
+      </c>
+      <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="449"/>
       <c r="R37" s="7">
@@ -25146,7 +25245,7 @@
       <c r="X37" s="221"/>
       <c r="Y37" s="207"/>
       <c r="AC37" s="321" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AD37" s="338"/>
       <c r="AE37" s="338"/>
@@ -25154,37 +25253,45 @@
         <v>61174.96</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="34"/>
       <c r="B38" s="134">
         <v>44411</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="242"/>
+      <c r="C38" s="71">
+        <v>2035</v>
+      </c>
+      <c r="D38" s="266" t="s">
+        <v>167</v>
+      </c>
       <c r="E38" s="136">
         <v>44411</v>
       </c>
-      <c r="F38" s="265"/>
+      <c r="F38" s="265">
+        <v>212722</v>
+      </c>
       <c r="G38" s="137"/>
       <c r="H38" s="138">
         <v>44411</v>
       </c>
-      <c r="I38" s="69"/>
+      <c r="I38" s="69">
+        <v>707</v>
+      </c>
       <c r="J38" s="233"/>
       <c r="K38" s="144"/>
       <c r="L38" s="358"/>
-      <c r="M38" s="473">
-        <v>0</v>
-      </c>
-      <c r="N38" s="42">
-        <v>0</v>
+      <c r="M38" s="586">
+        <v>185490</v>
+      </c>
+      <c r="N38" s="587">
+        <v>24490</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="450"/>
       <c r="R38" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>212722</v>
       </c>
       <c r="S38" s="6">
         <v>0</v>
@@ -25196,7 +25303,7 @@
       <c r="X38" s="221"/>
       <c r="Y38" s="207"/>
       <c r="AC38" s="321" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AD38" s="338"/>
       <c r="AE38" s="338"/>
@@ -25204,7 +25311,7 @@
         <v>53960</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="34"/>
       <c r="B39" s="134"/>
       <c r="C39" s="71"/>
@@ -25216,19 +25323,21 @@
       <c r="I39" s="69"/>
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
-      <c r="L39" s="358"/>
-      <c r="M39" s="77">
-        <v>0</v>
-      </c>
-      <c r="N39" s="42">
-        <v>0</v>
+      <c r="L39" s="357"/>
+      <c r="M39" s="568">
+        <f>SUM(M5:M38)</f>
+        <v>3989872.22</v>
+      </c>
+      <c r="N39" s="570">
+        <f>SUM(N5:N38)</f>
+        <v>688820.5</v>
       </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(R5:R38)</f>
+        <v>5190843.3199999994</v>
       </c>
       <c r="S39" s="6">
         <v>0</v>
@@ -25240,7 +25349,7 @@
       <c r="X39" s="221"/>
       <c r="Y39" s="207"/>
       <c r="AC39" s="321" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AD39" s="338"/>
       <c r="AE39" s="338"/>
@@ -25259,26 +25368,21 @@
       <c r="H40" s="138"/>
       <c r="I40" s="69"/>
       <c r="J40" s="233" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K40" s="144" t="s">
-        <v>583</v>
-      </c>
-      <c r="L40" s="358">
+        <v>582</v>
+      </c>
+      <c r="L40" s="357">
         <f>1145.91+398.99+423.94+498.99+398.99</f>
         <v>2866.8199999999997</v>
       </c>
-      <c r="M40" s="77"/>
-      <c r="N40" s="42">
-        <v>0</v>
-      </c>
+      <c r="M40" s="569"/>
+      <c r="N40" s="571"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="7">
-        <f t="shared" si="1"/>
-        <v>2866.8199999999997</v>
-      </c>
+      <c r="R40" s="7"/>
       <c r="S40" s="6">
         <v>0</v>
       </c>
@@ -25289,7 +25393,7 @@
       <c r="X40" s="221"/>
       <c r="Y40" s="207"/>
       <c r="AC40" s="321" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AD40" s="338"/>
       <c r="AE40" s="338"/>
@@ -25314,23 +25418,20 @@
       <c r="H41" s="138"/>
       <c r="I41" s="69"/>
       <c r="J41" s="233" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K41" s="144" t="s">
         <v>370</v>
       </c>
-      <c r="L41" s="358">
+      <c r="L41" s="357">
         <v>549</v>
       </c>
-      <c r="M41" s="77"/>
-      <c r="N41" s="42"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="7">
-        <f t="shared" si="1"/>
-        <v>25558.35</v>
-      </c>
+      <c r="R41" s="7"/>
       <c r="S41" s="6">
         <v>0</v>
       </c>
@@ -25341,7 +25442,7 @@
       <c r="X41" s="221"/>
       <c r="Y41" s="207"/>
       <c r="AC41" s="321" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AD41" s="338"/>
       <c r="AE41" s="338"/>
@@ -25367,23 +25468,20 @@
       <c r="H42" s="138"/>
       <c r="I42" s="69"/>
       <c r="J42" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K42" s="144" t="s">
         <v>385</v>
       </c>
-      <c r="L42" s="358">
+      <c r="L42" s="357">
         <v>798</v>
       </c>
-      <c r="M42" s="77"/>
-      <c r="N42" s="42"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="7">
-        <f t="shared" si="1"/>
-        <v>20374.650000000001</v>
-      </c>
+      <c r="R42" s="7"/>
       <c r="S42" s="6">
         <v>0</v>
       </c>
@@ -25417,24 +25515,21 @@
       <c r="H43" s="138"/>
       <c r="I43" s="69"/>
       <c r="J43" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K43" s="144" t="s">
         <v>211</v>
       </c>
-      <c r="L43" s="358">
+      <c r="L43" s="357">
         <f>9180+9180+9345+9180</f>
         <v>36885</v>
       </c>
-      <c r="M43" s="77"/>
-      <c r="N43" s="42"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="7">
-        <f t="shared" si="1"/>
-        <v>68916.17</v>
-      </c>
+      <c r="R43" s="7"/>
       <c r="S43" s="6">
         <v>0</v>
       </c>
@@ -25468,23 +25563,22 @@
       <c r="H44" s="138"/>
       <c r="I44" s="69"/>
       <c r="J44" s="233" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K44" s="228" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L44" s="358">
         <v>73526</v>
       </c>
-      <c r="M44" s="400"/>
-      <c r="N44" s="42"/>
+      <c r="M44" s="572" t="s">
+        <v>567</v>
+      </c>
+      <c r="N44" s="572"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="7">
-        <f t="shared" si="1"/>
-        <v>91293.02</v>
-      </c>
+      <c r="R44" s="7"/>
       <c r="S44" s="6">
         <v>0</v>
       </c>
@@ -25519,7 +25613,7 @@
       <c r="H45" s="138"/>
       <c r="I45" s="69"/>
       <c r="J45" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K45" s="228" t="s">
         <v>225</v>
@@ -25527,15 +25621,15 @@
       <c r="L45" s="358">
         <v>10000</v>
       </c>
-      <c r="M45" s="77"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="7"/>
+      <c r="M45" s="479">
+        <v>341970</v>
+      </c>
+      <c r="N45" s="473">
+        <v>44382</v>
+      </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="7">
-        <f t="shared" si="1"/>
-        <v>32444</v>
-      </c>
+      <c r="R45" s="7"/>
       <c r="S45" s="6">
         <v>0</v>
       </c>
@@ -25567,7 +25661,7 @@
       <c r="H46" s="138"/>
       <c r="I46" s="69"/>
       <c r="J46" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K46" s="168" t="s">
         <v>260</v>
@@ -25575,15 +25669,15 @@
       <c r="L46" s="66">
         <v>18104.22</v>
       </c>
-      <c r="M46" s="77"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="7"/>
+      <c r="M46" s="480">
+        <v>203050</v>
+      </c>
+      <c r="N46" s="473">
+        <v>44386</v>
+      </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="7">
-        <f t="shared" si="1"/>
-        <v>29307.72</v>
-      </c>
+      <c r="R46" s="7"/>
       <c r="S46" s="6">
         <v>0</v>
       </c>
@@ -25615,23 +25709,23 @@
       <c r="H47" s="138"/>
       <c r="I47" s="69"/>
       <c r="J47" s="233" t="s">
+        <v>696</v>
+      </c>
+      <c r="K47" s="144" t="s">
         <v>697</v>
-      </c>
-      <c r="K47" s="144" t="s">
-        <v>698</v>
       </c>
       <c r="L47" s="66">
         <v>580</v>
       </c>
-      <c r="M47" s="77"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="7"/>
+      <c r="M47" s="480">
+        <v>183700</v>
+      </c>
+      <c r="N47" s="473">
+        <v>44386</v>
+      </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="7">
-        <f t="shared" si="1"/>
-        <v>15956.78</v>
-      </c>
+      <c r="R47" s="7"/>
       <c r="T47" s="48"/>
       <c r="W47" s="213" t="s">
         <v>98</v>
@@ -25660,23 +25754,23 @@
       <c r="H48" s="138"/>
       <c r="I48" s="69"/>
       <c r="J48" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K48" s="144" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L48" s="66">
         <v>11880</v>
       </c>
-      <c r="M48" s="77"/>
-      <c r="N48" s="333"/>
-      <c r="O48" s="7"/>
+      <c r="M48" s="481">
+        <v>329090</v>
+      </c>
+      <c r="N48" s="474">
+        <v>44389</v>
+      </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="7">
-        <f t="shared" si="1"/>
-        <v>35409.78</v>
-      </c>
+      <c r="R48" s="7"/>
       <c r="T48" s="48"/>
       <c r="W48" s="213" t="s">
         <v>99</v>
@@ -25705,23 +25799,23 @@
       <c r="H49" s="138"/>
       <c r="I49" s="69"/>
       <c r="J49" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K49" s="144" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L49" s="66">
         <v>370</v>
       </c>
-      <c r="M49" s="77"/>
-      <c r="N49" s="333"/>
-      <c r="O49" s="7"/>
+      <c r="M49" s="482">
+        <v>174070</v>
+      </c>
+      <c r="N49" s="474">
+        <v>44392</v>
+      </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="7">
-        <f t="shared" si="1"/>
-        <v>13457.5</v>
-      </c>
+      <c r="R49" s="7"/>
       <c r="S49" s="7"/>
       <c r="T49" s="48"/>
       <c r="W49" s="213" t="s">
@@ -25751,23 +25845,23 @@
       <c r="H50" s="138"/>
       <c r="I50" s="69"/>
       <c r="J50" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K50" s="144" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L50" s="66">
         <v>9000</v>
       </c>
-      <c r="M50" s="77"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="7"/>
+      <c r="M50" s="482">
+        <v>339360</v>
+      </c>
+      <c r="N50" s="473">
+        <v>44396</v>
+      </c>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="7">
-        <f t="shared" si="1"/>
-        <v>38170.44</v>
-      </c>
+      <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="48"/>
       <c r="W50" s="213" t="s">
@@ -25783,14 +25877,14 @@
     <row r="51" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34"/>
       <c r="B51" s="146" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C51" s="71">
         <f>50556.69+25240.83+54215.65</f>
         <v>130013.17000000001</v>
       </c>
       <c r="D51" s="242" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E51" s="149"/>
       <c r="F51" s="74"/>
@@ -25798,18 +25892,21 @@
       <c r="H51" s="138"/>
       <c r="I51" s="69"/>
       <c r="J51" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K51" s="144" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L51" s="66">
         <f>399+399</f>
         <v>798</v>
       </c>
-      <c r="M51" s="77"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="7"/>
+      <c r="M51" s="482">
+        <v>260000</v>
+      </c>
+      <c r="N51" s="473">
+        <v>44398</v>
+      </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
@@ -25830,14 +25927,14 @@
     <row r="52" spans="1:33" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34"/>
       <c r="B52" s="146" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C52" s="71">
         <f>50000+399950</f>
         <v>449950</v>
       </c>
       <c r="D52" s="242" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E52" s="136"/>
       <c r="F52" s="71"/>
@@ -25845,17 +25942,20 @@
       <c r="H52" s="138"/>
       <c r="I52" s="69"/>
       <c r="J52" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K52" s="144" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L52" s="66">
         <v>5670</v>
       </c>
-      <c r="M52" s="77"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="7"/>
+      <c r="M52" s="482">
+        <v>313100</v>
+      </c>
+      <c r="N52" s="473">
+        <v>44400</v>
+      </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
@@ -25886,18 +25986,21 @@
         <v>11</v>
       </c>
       <c r="J53" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K53" s="168" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L53" s="66">
         <f>13688+2320</f>
         <v>16008</v>
       </c>
-      <c r="M53" s="77"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="7"/>
+      <c r="M53" s="482">
+        <v>460570</v>
+      </c>
+      <c r="N53" s="473">
+        <v>44403</v>
+      </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
@@ -25926,18 +26029,21 @@
       <c r="H54" s="138"/>
       <c r="I54" s="69"/>
       <c r="J54" s="233" t="s">
-        <v>697</v>
-      </c>
-      <c r="K54" s="460" t="s">
+        <v>696</v>
+      </c>
+      <c r="K54" s="457" t="s">
         <v>132</v>
       </c>
       <c r="L54" s="66">
         <f>1394.81+986.84</f>
         <v>2381.65</v>
       </c>
-      <c r="M54" s="41"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="7"/>
+      <c r="M54" s="483">
+        <v>415730</v>
+      </c>
+      <c r="N54" s="475">
+        <v>44407</v>
+      </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
@@ -25966,16 +26072,20 @@
       <c r="H55" s="138"/>
       <c r="I55" s="69"/>
       <c r="J55" s="233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K55" s="362" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L55" s="66">
         <v>55555.55</v>
       </c>
-      <c r="M55" s="41"/>
-      <c r="N55" s="42"/>
+      <c r="M55" s="483">
+        <v>295640</v>
+      </c>
+      <c r="N55" s="473">
+        <v>44410</v>
+      </c>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
@@ -26003,15 +26113,17 @@
       <c r="H56" s="145"/>
       <c r="I56" s="80"/>
       <c r="J56" s="233" t="s">
-        <v>697</v>
-      </c>
-      <c r="K56" s="462" t="s">
-        <v>707</v>
-      </c>
-      <c r="L56" s="461">
+        <v>696</v>
+      </c>
+      <c r="K56" s="459" t="s">
+        <v>706</v>
+      </c>
+      <c r="L56" s="458">
         <v>11485.41</v>
       </c>
-      <c r="M56" s="41"/>
+      <c r="M56" s="477">
+        <v>0</v>
+      </c>
       <c r="N56" s="42"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
@@ -26040,16 +26152,19 @@
       <c r="H57" s="145"/>
       <c r="I57" s="80"/>
       <c r="J57" s="325" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K57" s="359" t="s">
-        <v>704</v>
-      </c>
-      <c r="L57" s="461">
+        <v>703</v>
+      </c>
+      <c r="L57" s="458">
         <v>7482</v>
       </c>
-      <c r="M57" s="41"/>
-      <c r="N57" s="42"/>
+      <c r="M57" s="560">
+        <f>SUM(M45:M56)</f>
+        <v>3316280</v>
+      </c>
+      <c r="N57" s="476"/>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
@@ -26077,16 +26192,16 @@
       <c r="H58" s="145"/>
       <c r="I58" s="80"/>
       <c r="J58" s="325" t="s">
-        <v>696</v>
-      </c>
-      <c r="K58" s="460" t="s">
+        <v>695</v>
+      </c>
+      <c r="K58" s="457" t="s">
         <v>136</v>
       </c>
-      <c r="L58" s="461">
+      <c r="L58" s="458">
         <v>986</v>
       </c>
-      <c r="M58" s="41"/>
-      <c r="N58" s="42"/>
+      <c r="M58" s="561"/>
+      <c r="N58" s="476"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -26114,15 +26229,15 @@
       <c r="H59" s="145"/>
       <c r="I59" s="80"/>
       <c r="J59" s="325" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K59" s="425" t="s">
-        <v>710</v>
-      </c>
-      <c r="L59" s="461">
+        <v>709</v>
+      </c>
+      <c r="L59" s="458">
         <v>5878.28</v>
       </c>
-      <c r="M59" s="41"/>
+      <c r="M59" s="478"/>
       <c r="N59" s="42"/>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
@@ -26140,7 +26255,7 @@
       <c r="AF59" s="99"/>
       <c r="AG59" s="99"/>
     </row>
-    <row r="60" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="34"/>
       <c r="B60" s="283"/>
       <c r="C60" s="71"/>
@@ -26151,17 +26266,19 @@
       <c r="H60" s="145"/>
       <c r="I60" s="80"/>
       <c r="J60" s="325" t="s">
-        <v>696</v>
-      </c>
-      <c r="K60" s="465" t="s">
-        <v>713</v>
-      </c>
-      <c r="L60" s="461">
+        <v>695</v>
+      </c>
+      <c r="K60" s="462" t="s">
+        <v>712</v>
+      </c>
+      <c r="L60" s="458">
         <f>1033.33+165.33</f>
         <v>1198.6599999999999</v>
       </c>
-      <c r="M60" s="41"/>
-      <c r="N60" s="42"/>
+      <c r="M60" s="562" t="s">
+        <v>721</v>
+      </c>
+      <c r="N60" s="563"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -26189,12 +26306,12 @@
       <c r="H61" s="145"/>
       <c r="I61" s="80"/>
       <c r="J61" s="325" t="s">
-        <v>696</v>
-      </c>
-      <c r="K61" s="469" t="s">
-        <v>716</v>
-      </c>
-      <c r="L61" s="468">
+        <v>695</v>
+      </c>
+      <c r="K61" s="466" t="s">
+        <v>715</v>
+      </c>
+      <c r="L61" s="465">
         <v>24433.22</v>
       </c>
       <c r="M61" s="41"/>
@@ -26226,16 +26343,19 @@
       <c r="H62" s="145"/>
       <c r="I62" s="80"/>
       <c r="J62" s="325" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K62" s="425" t="s">
-        <v>719</v>
-      </c>
-      <c r="L62" s="461">
+        <v>718</v>
+      </c>
+      <c r="L62" s="458">
         <v>22595.71</v>
       </c>
-      <c r="M62" s="41"/>
-      <c r="N62" s="42"/>
+      <c r="M62" s="564">
+        <f>M57-M39</f>
+        <v>-673592.2200000002</v>
+      </c>
+      <c r="N62" s="565"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -26263,16 +26383,16 @@
       <c r="H63" s="145"/>
       <c r="I63" s="80"/>
       <c r="J63" s="325" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K63" s="425" t="s">
-        <v>720</v>
-      </c>
-      <c r="L63" s="461">
+        <v>719</v>
+      </c>
+      <c r="L63" s="458">
         <v>1064</v>
       </c>
-      <c r="M63" s="41"/>
-      <c r="N63" s="42"/>
+      <c r="M63" s="566"/>
+      <c r="N63" s="567"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -26300,12 +26420,12 @@
       <c r="H64" s="145"/>
       <c r="I64" s="80"/>
       <c r="J64" s="325" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K64" s="425" t="s">
-        <v>719</v>
-      </c>
-      <c r="L64" s="461">
+        <v>718</v>
+      </c>
+      <c r="L64" s="458">
         <v>10440</v>
       </c>
       <c r="M64" s="41"/>
@@ -26336,10 +26456,10 @@
       <c r="H65" s="73"/>
       <c r="I65" s="80"/>
       <c r="J65" s="325" t="s">
-        <v>696</v>
-      </c>
-      <c r="K65" s="470"/>
-      <c r="L65" s="461"/>
+        <v>695</v>
+      </c>
+      <c r="K65" s="467"/>
+      <c r="L65" s="458"/>
       <c r="M65" s="41"/>
       <c r="N65" s="42"/>
       <c r="O65" s="7"/>
@@ -26370,9 +26490,9 @@
       <c r="H66" s="73"/>
       <c r="I66" s="80"/>
       <c r="J66" s="325" t="s">
-        <v>696</v>
-      </c>
-      <c r="K66" s="471"/>
+        <v>695</v>
+      </c>
+      <c r="K66" s="468"/>
       <c r="L66" s="6"/>
       <c r="M66" s="41"/>
       <c r="N66" s="42"/>
@@ -26402,7 +26522,7 @@
       </c>
       <c r="C67" s="86">
         <f>SUM(C5:C66)</f>
-        <v>1042604.36</v>
+        <v>1044639.36</v>
       </c>
       <c r="D67" s="87"/>
       <c r="E67" s="88" t="s">
@@ -26410,7 +26530,7 @@
       </c>
       <c r="F67" s="89">
         <f>SUM(F5:F66)</f>
-        <v>4856334</v>
+        <v>5068756</v>
       </c>
       <c r="G67" s="87"/>
       <c r="H67" s="90" t="s">
@@ -26418,7 +26538,7 @@
       </c>
       <c r="I67" s="91">
         <f>SUM(I5:I66)</f>
-        <v>53134.9</v>
+        <v>53841.9</v>
       </c>
       <c r="J67" s="92"/>
       <c r="K67" s="93" t="s">
@@ -26428,20 +26548,14 @@
         <f>SUM(L5:L66)</f>
         <v>533364.22</v>
       </c>
-      <c r="M67" s="95">
-        <f>SUM(M5:M66)</f>
-        <v>3804427.22</v>
-      </c>
-      <c r="N67" s="95">
-        <f>SUM(N5:N66)</f>
-        <v>664285.5</v>
-      </c>
+      <c r="M67" s="95"/>
+      <c r="N67" s="95"/>
       <c r="O67" s="366"/>
       <c r="P67" s="366"/>
       <c r="Q67" s="366"/>
       <c r="R67" s="7">
         <f>SUM(R5:R66)</f>
-        <v>5351876.55</v>
+        <v>10381686.639999999</v>
       </c>
       <c r="S67" s="7">
         <f>SUM(S5:S66)</f>
@@ -26468,21 +26582,18 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="496" t="s">
+      <c r="H69" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="497"/>
+      <c r="I69" s="494"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="498">
+      <c r="K69" s="495">
         <f>I67+L67</f>
-        <v>586499.12</v>
-      </c>
-      <c r="L69" s="499"/>
-      <c r="M69" s="500">
-        <f>M67+N67</f>
-        <v>4468712.7200000007</v>
-      </c>
-      <c r="N69" s="501"/>
+        <v>587206.12</v>
+      </c>
+      <c r="L69" s="496"/>
+      <c r="M69" s="471"/>
+      <c r="N69" s="472"/>
       <c r="O69" s="367"/>
       <c r="P69" s="367"/>
       <c r="Q69" s="367"/>
@@ -26497,40 +26608,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="508" t="s">
+      <c r="D70" s="505" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="508"/>
+      <c r="E70" s="505"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
-        <v>3227230.52</v>
+        <v>3436910.52</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="487">
+      <c r="R70" s="484">
         <f>R67+S67</f>
-        <v>5473963.8700000001</v>
-      </c>
-      <c r="S70" s="488"/>
+        <v>10503773.959999999</v>
+      </c>
+      <c r="S70" s="485"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="489" t="s">
-        <v>503</v>
-      </c>
-      <c r="E71" s="489"/>
+      <c r="D71" s="486" t="s">
+        <v>502</v>
+      </c>
+      <c r="E71" s="486"/>
       <c r="F71" s="95">
         <v>-3290264.27</v>
       </c>
-      <c r="I71" s="490" t="s">
+      <c r="I71" s="487" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="491"/>
-      <c r="K71" s="492">
+      <c r="J71" s="488"/>
+      <c r="K71" s="489">
         <f>F73+F74+F75</f>
-        <v>-63033.75</v>
-      </c>
-      <c r="L71" s="493"/>
+        <v>176424.25</v>
+      </c>
+      <c r="L71" s="490"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -26544,10 +26655,6 @@
       <c r="J72" s="111"/>
       <c r="K72" s="112"/>
       <c r="L72" s="113"/>
-      <c r="M72" s="563" t="s">
-        <v>568</v>
-      </c>
-      <c r="N72" s="563"/>
       <c r="R72" s="107"/>
       <c r="S72" s="7"/>
       <c r="U72" s="50"/>
@@ -26561,25 +26668,23 @@
       </c>
       <c r="F73" s="95">
         <f>SUM(F70:F72)</f>
-        <v>-63033.75</v>
+        <v>146646.25</v>
       </c>
       <c r="H73" s="34"/>
       <c r="I73" s="114" t="s">
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="494">
+      <c r="K73" s="491">
         <f>-C4</f>
         <v>-308642.71999999997</v>
       </c>
-      <c r="L73" s="564"/>
-      <c r="M73" s="474"/>
-      <c r="N73" s="475"/>
+      <c r="L73" s="573"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
     </row>
-    <row r="74" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="117" t="s">
         <v>22</v>
       </c>
@@ -26587,61 +26692,52 @@
         <v>23</v>
       </c>
       <c r="F74" s="118">
-        <v>0</v>
-      </c>
-      <c r="M74" s="476">
-        <f>341970+203050+183700+329090+174070+339360+260000+313100+460570+415730+295640</f>
-        <v>3316280</v>
-      </c>
-      <c r="N74" s="477"/>
+        <v>29778</v>
+      </c>
       <c r="R74" s="50"/>
       <c r="S74" s="7"/>
       <c r="U74" s="50"/>
     </row>
     <row r="75" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="119"/>
-      <c r="D75" s="502" t="s">
+      <c r="D75" s="499" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="503"/>
+      <c r="E75" s="500"/>
       <c r="F75" s="120">
         <v>0</v>
       </c>
-      <c r="I75" s="504" t="s">
+      <c r="I75" s="501" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="505"/>
-      <c r="K75" s="506">
+      <c r="J75" s="502"/>
+      <c r="K75" s="503">
         <f>K71+K73</f>
-        <v>-371676.47</v>
-      </c>
-      <c r="L75" s="506"/>
-      <c r="M75" s="478"/>
-      <c r="N75" s="477"/>
+        <v>-132218.46999999997</v>
+      </c>
+      <c r="L75" s="503"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
     </row>
-    <row r="76" spans="1:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C76" s="122"/>
       <c r="D76" s="123"/>
       <c r="E76" s="57"/>
       <c r="F76" s="124"/>
       <c r="J76" s="125"/>
-      <c r="M76" s="479"/>
-      <c r="N76" s="480"/>
       <c r="R76" s="121"/>
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="565" t="s">
-        <v>611</v>
-      </c>
-      <c r="J77" s="566"/>
-      <c r="K77" s="569">
-        <v>0</v>
-      </c>
-      <c r="L77" s="570"/>
+      <c r="I77" s="574" t="s">
+        <v>610</v>
+      </c>
+      <c r="J77" s="575"/>
+      <c r="K77" s="578">
+        <v>0</v>
+      </c>
+      <c r="L77" s="579"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -26650,10 +26746,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="567"/>
-      <c r="J78" s="568"/>
-      <c r="K78" s="571"/>
-      <c r="L78" s="572"/>
+      <c r="I78" s="576"/>
+      <c r="J78" s="577"/>
+      <c r="K78" s="580"/>
+      <c r="L78" s="581"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="165"/>
@@ -26705,7 +26801,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="556"/>
+      <c r="AC81" s="553"/>
       <c r="AD81" s="440"/>
       <c r="AE81" s="440"/>
       <c r="AF81" s="440"/>
@@ -26718,7 +26814,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="556"/>
+      <c r="AC82" s="553"/>
       <c r="AD82" s="440"/>
       <c r="AE82" s="440"/>
       <c r="AF82" s="440"/>
@@ -26811,8 +26907,7 @@
       <c r="F97" s="273"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="M72:N72"/>
+  <mergeCells count="37">
     <mergeCell ref="AC81:AC82"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
@@ -26827,9 +26922,14 @@
     <mergeCell ref="AE25:AF26"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:N69"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="R70:S70"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M62:N63"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="M44:N44"/>
     <mergeCell ref="AG25:AG26"/>
     <mergeCell ref="AB29:AB30"/>
     <mergeCell ref="AC29:AC30"/>
@@ -26847,7 +26947,7 @@
     <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -26876,7 +26976,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="324" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1" s="175" t="s">
         <v>31</v>
@@ -26911,7 +27011,7 @@
         <v>44378</v>
       </c>
       <c r="B3" s="193" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C3" s="71">
         <v>167572.29</v>
@@ -26928,7 +27028,7 @@
         <v>44378</v>
       </c>
       <c r="B4" s="193" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C4" s="71">
         <v>1570.2</v>
@@ -26946,7 +27046,7 @@
         <v>44378</v>
       </c>
       <c r="B5" s="193" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C5" s="71">
         <v>50</v>
@@ -26963,7 +27063,7 @@
         <v>44378</v>
       </c>
       <c r="B6" s="193" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C6" s="71">
         <v>1501.5</v>
@@ -26980,7 +27080,7 @@
         <v>44379</v>
       </c>
       <c r="B7" s="193" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C7" s="71">
         <v>150631.70000000001</v>
@@ -26997,7 +27097,7 @@
         <v>44379</v>
       </c>
       <c r="B8" s="193" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C8" s="71">
         <v>10630.6</v>
@@ -27018,7 +27118,7 @@
         <v>44380</v>
       </c>
       <c r="B9" s="193" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C9" s="71">
         <v>41478.800000000003</v>
@@ -27035,7 +27135,7 @@
         <v>44380</v>
       </c>
       <c r="B10" s="193" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C10" s="71">
         <v>22978</v>
@@ -27053,7 +27153,7 @@
         <v>44381</v>
       </c>
       <c r="B11" s="193" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C11" s="71">
         <v>36367.800000000003</v>
@@ -27070,7 +27170,7 @@
         <v>44382</v>
       </c>
       <c r="B12" s="193" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C12" s="71">
         <v>86609.1</v>
@@ -27087,7 +27187,7 @@
         <v>44383</v>
       </c>
       <c r="B13" s="193" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C13" s="71">
         <v>143566.39999999999</v>
@@ -27104,7 +27204,7 @@
         <v>44383</v>
       </c>
       <c r="B14" s="193" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C14" s="71">
         <v>13006.5</v>
@@ -27121,7 +27221,7 @@
         <v>44384</v>
       </c>
       <c r="B15" s="193" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C15" s="71">
         <v>4243.2</v>
@@ -27138,7 +27238,7 @@
         <v>44385</v>
       </c>
       <c r="B16" s="193" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C16" s="71">
         <v>162856.76</v>
@@ -27155,7 +27255,7 @@
         <v>44385</v>
       </c>
       <c r="B17" s="193" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C17" s="71">
         <v>18152.400000000001</v>
@@ -27172,7 +27272,7 @@
         <v>44386</v>
       </c>
       <c r="B18" s="193" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C18" s="71">
         <v>21899.7</v>
@@ -27193,7 +27293,7 @@
         <v>44386</v>
       </c>
       <c r="B19" s="193" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C19" s="71">
         <v>214902.82</v>
@@ -27210,7 +27310,7 @@
         <v>44386</v>
       </c>
       <c r="B20" s="193" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C20" s="71">
         <v>11716.2</v>
@@ -27227,7 +27327,7 @@
         <v>44387</v>
       </c>
       <c r="B21" s="193" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C21" s="71">
         <v>29018.5</v>
@@ -27244,7 +27344,7 @@
         <v>44387</v>
       </c>
       <c r="B22" s="193" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C22" s="71">
         <v>41165.4</v>
@@ -27262,7 +27362,7 @@
         <v>44389</v>
       </c>
       <c r="B23" s="193" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C23" s="71">
         <v>61268.3</v>
@@ -27279,7 +27379,7 @@
         <v>44390</v>
       </c>
       <c r="B24" s="193" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C24" s="71">
         <v>81737.7</v>
@@ -27296,7 +27396,7 @@
         <v>44390</v>
       </c>
       <c r="B25" s="193" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C25" s="71">
         <v>45814.2</v>
@@ -27313,7 +27413,7 @@
         <v>44391</v>
       </c>
       <c r="B26" s="193" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C26" s="71">
         <v>178032.02</v>
@@ -27330,7 +27430,7 @@
         <v>44393</v>
       </c>
       <c r="B27" s="193" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C27" s="71">
         <v>112728.06</v>
@@ -27347,7 +27447,7 @@
         <v>44393</v>
       </c>
       <c r="B28" s="193" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C28" s="71">
         <v>68124.100000000006</v>
@@ -27368,7 +27468,7 @@
         <v>44394</v>
       </c>
       <c r="B29" s="193" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C29" s="71">
         <v>203141.25</v>
@@ -27385,7 +27485,7 @@
         <v>44394</v>
       </c>
       <c r="B30" s="193" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C30" s="71">
         <v>1863</v>
@@ -27403,7 +27503,7 @@
         <v>44394</v>
       </c>
       <c r="B31" s="193" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C31" s="71">
         <v>49296.6</v>
@@ -27420,7 +27520,7 @@
         <v>44394</v>
       </c>
       <c r="B32" s="193" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C32" s="71">
         <v>3888</v>
@@ -27437,7 +27537,7 @@
         <v>44394</v>
       </c>
       <c r="B33" s="193" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C33" s="71">
         <v>2142</v>
@@ -27454,7 +27554,7 @@
         <v>44396</v>
       </c>
       <c r="B34" s="193" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C34" s="71">
         <v>23409.3</v>
@@ -27471,7 +27571,7 @@
         <v>44396</v>
       </c>
       <c r="B35" s="193" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C35" s="71">
         <v>110387.4</v>
@@ -27488,7 +27588,7 @@
         <v>44397</v>
       </c>
       <c r="B36" s="193" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C36" s="71">
         <v>25164.3</v>
@@ -27505,7 +27605,7 @@
         <v>44397</v>
       </c>
       <c r="B37" s="193" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C37" s="71">
         <v>44415.9</v>
@@ -27522,7 +27622,7 @@
         <v>44397</v>
       </c>
       <c r="B38" s="193" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C38" s="71">
         <v>105397.15</v>
@@ -27539,7 +27639,7 @@
         <v>44399</v>
       </c>
       <c r="B39" s="193" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C39" s="71">
         <v>46981.2</v>
@@ -27556,7 +27656,7 @@
         <v>44399</v>
       </c>
       <c r="B40" s="193" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C40" s="71">
         <v>149792.79999999999</v>
@@ -27573,7 +27673,7 @@
         <v>44400</v>
       </c>
       <c r="B41" s="193" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C41" s="71">
         <v>1645.8</v>
@@ -27590,7 +27690,7 @@
         <v>44400</v>
       </c>
       <c r="B42" s="193" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C42" s="71">
         <v>48310.9</v>
@@ -27611,7 +27711,7 @@
         <v>44400</v>
       </c>
       <c r="B43" s="193" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C43" s="71">
         <v>111997.3</v>
@@ -27628,7 +27728,7 @@
         <v>44400</v>
       </c>
       <c r="B44" s="193" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C44" s="71">
         <v>7960</v>
@@ -27645,7 +27745,7 @@
         <v>44401</v>
       </c>
       <c r="B45" s="193" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C45" s="71">
         <v>75307.06</v>
@@ -27662,7 +27762,7 @@
         <v>44401</v>
       </c>
       <c r="B46" s="193" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C46" s="71">
         <v>76017.600000000006</v>
@@ -27679,7 +27779,7 @@
         <v>44401</v>
       </c>
       <c r="B47" s="193" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C47" s="71">
         <v>110127.1</v>
@@ -27696,7 +27796,7 @@
         <v>44403</v>
       </c>
       <c r="B48" s="193" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C48" s="71">
         <v>87378.06</v>
@@ -27713,7 +27813,7 @@
         <v>44404</v>
       </c>
       <c r="B49" s="193" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C49" s="71">
         <v>103638.6</v>
@@ -27730,7 +27830,7 @@
         <v>44405</v>
       </c>
       <c r="B50" s="193" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C50" s="71">
         <v>150387.1</v>
@@ -27747,7 +27847,7 @@
         <v>44406</v>
       </c>
       <c r="B51" s="193" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C51" s="71">
         <v>23993.599999999999</v>
@@ -28501,10 +28601,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A43:G62"/>
+  <dimension ref="A46:G65"/>
   <sheetViews>
     <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28512,102 +28612,42 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="573" t="s">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32"/>
+      <c r="B47" s="582" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="574"/>
-      <c r="D44" s="574"/>
-      <c r="E44" s="575"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
-        <v>44407</v>
-      </c>
-      <c r="B45" s="196" t="s">
+      <c r="C47" s="583"/>
+      <c r="D47" s="583"/>
+      <c r="E47" s="584"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>44411</v>
+      </c>
+      <c r="B48" s="196" t="s">
         <v>722</v>
       </c>
-      <c r="C45" s="197">
-        <v>49649.22</v>
-      </c>
-      <c r="D45" s="198" t="s">
+      <c r="C48" s="197">
+        <v>1624.92</v>
+      </c>
+      <c r="D48" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="199" t="s">
-        <v>612</v>
-      </c>
-      <c r="F45" s="72">
-        <v>0</v>
-      </c>
-      <c r="G45" s="485" t="s">
+      <c r="E48" s="199" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>44407</v>
-      </c>
-      <c r="B46" s="196" t="s">
-        <v>724</v>
-      </c>
-      <c r="C46" s="197">
-        <v>508.32</v>
-      </c>
-      <c r="D46" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="199" t="s">
-        <v>725</v>
-      </c>
-      <c r="F46" s="72">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
-        <v>44407</v>
-      </c>
-      <c r="B47" s="196" t="s">
-        <v>726</v>
-      </c>
-      <c r="C47" s="197">
-        <v>63.4</v>
-      </c>
-      <c r="D47" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="199" t="s">
-        <v>727</v>
-      </c>
-      <c r="F47" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="196" t="s">
-        <v>433</v>
-      </c>
-      <c r="C48" s="197">
-        <v>0</v>
-      </c>
-      <c r="D48" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="199" t="s">
-        <v>612</v>
-      </c>
       <c r="F48" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1740</v>
+      </c>
+      <c r="G48" s="469"/>
+    </row>
+    <row r="49" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C49" s="197">
         <v>0</v>
@@ -28616,16 +28656,16 @@
         <v>33</v>
       </c>
       <c r="E49" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F49" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C50" s="197">
         <v>0</v>
@@ -28634,7 +28674,7 @@
         <v>33</v>
       </c>
       <c r="E50" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F50" s="72">
         <v>0</v>
@@ -28643,7 +28683,7 @@
     <row r="51" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C51" s="197">
         <v>0</v>
@@ -28652,43 +28692,43 @@
         <v>33</v>
       </c>
       <c r="E51" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F51" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="330"/>
+    <row r="52" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19"/>
       <c r="B52" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C52" s="197">
         <v>0</v>
       </c>
-      <c r="D52" s="331" t="s">
+      <c r="D52" s="200" t="s">
         <v>33</v>
       </c>
       <c r="E52" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F52" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="329"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C53" s="197">
         <v>0</v>
       </c>
-      <c r="D53" s="198" t="s">
+      <c r="D53" s="200" t="s">
         <v>33</v>
       </c>
       <c r="E53" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F53" s="72">
         <v>0</v>
@@ -28697,7 +28737,7 @@
     <row r="54" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C54" s="197">
         <v>0</v>
@@ -28706,43 +28746,43 @@
         <v>33</v>
       </c>
       <c r="E54" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F54" s="72">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
+    <row r="55" spans="1:6" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="330"/>
       <c r="B55" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C55" s="197">
         <v>0</v>
       </c>
-      <c r="D55" s="200" t="s">
+      <c r="D55" s="331" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F55" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
+      <c r="A56" s="329"/>
       <c r="B56" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C56" s="197">
         <v>0</v>
       </c>
-      <c r="D56" s="200" t="s">
+      <c r="D56" s="198" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F56" s="72">
         <v>0</v>
@@ -28751,7 +28791,7 @@
     <row r="57" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C57" s="197">
         <v>0</v>
@@ -28760,7 +28800,7 @@
         <v>33</v>
       </c>
       <c r="E57" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F57" s="72">
         <v>0</v>
@@ -28769,7 +28809,7 @@
     <row r="58" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C58" s="197">
         <v>0</v>
@@ -28778,7 +28818,7 @@
         <v>33</v>
       </c>
       <c r="E58" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F58" s="72">
         <v>0</v>
@@ -28787,7 +28827,7 @@
     <row r="59" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="196" t="s">
-        <v>433</v>
+        <v>611</v>
       </c>
       <c r="C59" s="197">
         <v>0</v>
@@ -28796,25 +28836,79 @@
         <v>33</v>
       </c>
       <c r="E59" s="199" t="s">
-        <v>612</v>
+        <v>27</v>
       </c>
       <c r="F59" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19"/>
+      <c r="B60" s="196" t="s">
+        <v>611</v>
+      </c>
       <c r="C60" s="197">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D60" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19"/>
+      <c r="B61" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C61" s="197">
+        <v>0</v>
+      </c>
+      <c r="D61" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19"/>
+      <c r="B62" s="196" t="s">
+        <v>611</v>
+      </c>
+      <c r="C62" s="197">
+        <v>0</v>
+      </c>
+      <c r="D62" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A45:F46">
     <sortCondition ref="B45:B46"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B47:E47"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29882,17 +29976,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="509" t="s">
+      <c r="C1" s="506" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
-      <c r="K1" s="509"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="506"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -29923,17 +30017,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="510" t="s">
+      <c r="B3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="511"/>
+      <c r="C3" s="508"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="512"/>
+      <c r="I3" s="509"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -29962,14 +30056,14 @@
       <c r="D4" s="23">
         <v>44230</v>
       </c>
-      <c r="E4" s="513" t="s">
+      <c r="E4" s="510" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="514"/>
-      <c r="H4" s="515" t="s">
+      <c r="F4" s="511"/>
+      <c r="H4" s="512" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="516"/>
+      <c r="I4" s="513"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -32508,61 +32602,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="496" t="s">
+      <c r="H64" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="497"/>
+      <c r="I64" s="494"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="498">
+      <c r="K64" s="495">
         <f>I62+L62</f>
         <v>259947.00000000003</v>
       </c>
-      <c r="L64" s="499"/>
-      <c r="M64" s="500">
+      <c r="L64" s="496"/>
+      <c r="M64" s="497">
         <f>M62+N62</f>
         <v>2744320</v>
       </c>
-      <c r="N64" s="501"/>
+      <c r="N64" s="498"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="508" t="s">
+      <c r="D65" s="505" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="508"/>
+      <c r="E65" s="505"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2374814.2599999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="487">
+      <c r="P65" s="484">
         <f>P62+Q62</f>
         <v>3144691.75</v>
       </c>
-      <c r="Q65" s="488"/>
+      <c r="Q65" s="485"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="489" t="s">
+      <c r="D66" s="486" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="489"/>
+      <c r="E66" s="486"/>
       <c r="F66" s="95">
         <v>-2261593.1</v>
       </c>
-      <c r="I66" s="490" t="s">
+      <c r="I66" s="487" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="491"/>
-      <c r="K66" s="492">
+      <c r="J66" s="488"/>
+      <c r="K66" s="489">
         <f>F68+F69+F70</f>
         <v>355407.6199999997</v>
       </c>
-      <c r="L66" s="493"/>
+      <c r="L66" s="490"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -32599,11 +32693,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="494">
+      <c r="K68" s="491">
         <f>-C4</f>
         <v>-209541.1</v>
       </c>
-      <c r="L68" s="495"/>
+      <c r="L68" s="492"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -32627,22 +32721,22 @@
       <c r="C70" s="119">
         <v>44257</v>
       </c>
-      <c r="D70" s="502" t="s">
+      <c r="D70" s="499" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="503"/>
+      <c r="E70" s="500"/>
       <c r="F70" s="120">
         <v>223014.26</v>
       </c>
-      <c r="I70" s="504" t="s">
+      <c r="I70" s="501" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="505"/>
-      <c r="K70" s="506">
+      <c r="J70" s="502"/>
+      <c r="K70" s="503">
         <f>K66+K68</f>
         <v>145866.5199999997</v>
       </c>
-      <c r="L70" s="507"/>
+      <c r="L70" s="504"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -34030,17 +34124,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="509" t="s">
+      <c r="C1" s="506" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
-      <c r="K1" s="509"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="506"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -34070,17 +34164,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="510" t="s">
+      <c r="B3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="511"/>
+      <c r="C3" s="508"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="512"/>
+      <c r="I3" s="509"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -34109,14 +34203,14 @@
       <c r="D4" s="23">
         <v>44257</v>
       </c>
-      <c r="E4" s="513" t="s">
+      <c r="E4" s="510" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="514"/>
-      <c r="H4" s="515" t="s">
+      <c r="F4" s="511"/>
+      <c r="H4" s="512" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="516"/>
+      <c r="I4" s="513"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -36718,61 +36812,61 @@
       <c r="A62" s="60"/>
       <c r="B62" s="100"/>
       <c r="C62" s="4"/>
-      <c r="H62" s="496" t="s">
+      <c r="H62" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="497"/>
+      <c r="I62" s="494"/>
       <c r="J62" s="101"/>
-      <c r="K62" s="498">
+      <c r="K62" s="495">
         <f>I60+L60</f>
         <v>781851.32000000007</v>
       </c>
-      <c r="L62" s="499"/>
-      <c r="M62" s="500">
+      <c r="L62" s="496"/>
+      <c r="M62" s="497">
         <f>M60+N60</f>
         <v>4064802.5</v>
       </c>
-      <c r="N62" s="501"/>
+      <c r="N62" s="498"/>
       <c r="O62" s="102"/>
       <c r="P62" s="99"/>
       <c r="Q62" s="99"/>
       <c r="S62" s="174"/>
     </row>
     <row r="63" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="508" t="s">
+      <c r="D63" s="505" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="508"/>
+      <c r="E63" s="505"/>
       <c r="F63" s="103">
         <f>F60-K62-C60</f>
         <v>3177878.1399999997</v>
       </c>
       <c r="I63" s="104"/>
       <c r="J63" s="105"/>
-      <c r="P63" s="487">
+      <c r="P63" s="484">
         <f>P60+Q60</f>
         <v>4585432.34</v>
       </c>
-      <c r="Q63" s="488"/>
+      <c r="Q63" s="485"/>
       <c r="S63" s="50"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="489" t="s">
+      <c r="D64" s="486" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="489"/>
+      <c r="E64" s="486"/>
       <c r="F64" s="95">
         <v>-3579271.89</v>
       </c>
-      <c r="I64" s="490" t="s">
+      <c r="I64" s="487" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="491"/>
-      <c r="K64" s="492">
+      <c r="J64" s="488"/>
+      <c r="K64" s="489">
         <f>F66+F67+F68</f>
         <v>-110332.85000000047</v>
       </c>
-      <c r="L64" s="493"/>
+      <c r="L64" s="490"/>
       <c r="P64" s="50"/>
       <c r="S64" s="107"/>
     </row>
@@ -36806,11 +36900,11 @@
         <v>21</v>
       </c>
       <c r="J66" s="115"/>
-      <c r="K66" s="494">
+      <c r="K66" s="491">
         <f>-C4</f>
         <v>-223014.26</v>
       </c>
-      <c r="L66" s="495"/>
+      <c r="L66" s="492"/>
       <c r="M66" s="116"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="7"/>
@@ -36834,22 +36928,22 @@
       <c r="C68" s="119">
         <v>44291</v>
       </c>
-      <c r="D68" s="502" t="s">
+      <c r="D68" s="499" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="503"/>
+      <c r="E68" s="500"/>
       <c r="F68" s="120">
         <v>215362.9</v>
       </c>
-      <c r="I68" s="517" t="s">
+      <c r="I68" s="514" t="s">
         <v>431</v>
       </c>
-      <c r="J68" s="518"/>
-      <c r="K68" s="519">
+      <c r="J68" s="515"/>
+      <c r="K68" s="516">
         <f>K64+K66</f>
         <v>-333347.11000000045</v>
       </c>
-      <c r="L68" s="520"/>
+      <c r="L68" s="517"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
       <c r="S68" s="121"/>
@@ -38453,17 +38547,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="509" t="s">
+      <c r="C1" s="506" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
-      <c r="K1" s="509"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="506"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -38493,17 +38587,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="510" t="s">
+      <c r="B3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="511"/>
+      <c r="C3" s="508"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="512"/>
+      <c r="I3" s="509"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -38532,14 +38626,14 @@
       <c r="D4" s="23">
         <v>44291</v>
       </c>
-      <c r="E4" s="513" t="s">
+      <c r="E4" s="510" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="514"/>
-      <c r="H4" s="515" t="s">
+      <c r="F4" s="511"/>
+      <c r="H4" s="512" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="522"/>
+      <c r="I4" s="519"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -40735,7 +40829,7 @@
         <v>381</v>
       </c>
       <c r="K48" s="81" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="L48" s="290">
         <v>6267.95</v>
@@ -41031,61 +41125,61 @@
       <c r="A58" s="60"/>
       <c r="B58" s="100"/>
       <c r="C58" s="4"/>
-      <c r="H58" s="496" t="s">
+      <c r="H58" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="497"/>
+      <c r="I58" s="494"/>
       <c r="J58" s="101"/>
-      <c r="K58" s="498">
+      <c r="K58" s="495">
         <f>I56+L56</f>
         <v>370346.35000000003</v>
       </c>
-      <c r="L58" s="523"/>
-      <c r="M58" s="500">
+      <c r="L58" s="520"/>
+      <c r="M58" s="497">
         <f>M56+N56</f>
         <v>3537422</v>
       </c>
-      <c r="N58" s="501"/>
+      <c r="N58" s="498"/>
       <c r="O58" s="102"/>
       <c r="P58" s="99"/>
       <c r="Q58" s="99"/>
       <c r="S58" s="174"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="508" t="s">
+      <c r="D59" s="505" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="521"/>
+      <c r="E59" s="518"/>
       <c r="F59" s="103">
         <f>F56-K58-C56</f>
         <v>3048717.54</v>
       </c>
       <c r="I59" s="104"/>
       <c r="J59" s="105"/>
-      <c r="P59" s="487">
+      <c r="P59" s="484">
         <f>P56+Q56</f>
         <v>8073324.3200000003</v>
       </c>
-      <c r="Q59" s="488"/>
+      <c r="Q59" s="485"/>
       <c r="S59" s="50"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="489" t="s">
+      <c r="D60" s="486" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="489"/>
+      <c r="E60" s="486"/>
       <c r="F60" s="95">
         <v>-3102716.28</v>
       </c>
-      <c r="I60" s="490" t="s">
+      <c r="I60" s="487" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="491"/>
-      <c r="K60" s="492">
+      <c r="J60" s="488"/>
+      <c r="K60" s="489">
         <f>F62+F63+F64</f>
         <v>216465.62000000023</v>
       </c>
-      <c r="L60" s="493"/>
+      <c r="L60" s="490"/>
       <c r="P60" s="50"/>
       <c r="S60" s="107"/>
     </row>
@@ -41119,11 +41213,11 @@
         <v>21</v>
       </c>
       <c r="J62" s="115"/>
-      <c r="K62" s="494">
+      <c r="K62" s="491">
         <f>-C4</f>
         <v>-215362.9</v>
       </c>
-      <c r="L62" s="495"/>
+      <c r="L62" s="492"/>
       <c r="M62" s="116"/>
       <c r="P62" s="50"/>
       <c r="Q62" s="7"/>
@@ -41147,22 +41241,22 @@
       <c r="C64" s="119">
         <v>44320</v>
       </c>
-      <c r="D64" s="502" t="s">
+      <c r="D64" s="499" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="503"/>
+      <c r="E64" s="500"/>
       <c r="F64" s="120">
         <v>249311.35999999999</v>
       </c>
-      <c r="I64" s="504" t="s">
+      <c r="I64" s="501" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="505"/>
-      <c r="K64" s="506">
+      <c r="J64" s="502"/>
+      <c r="K64" s="503">
         <f>K60+K62</f>
         <v>1102.720000000234</v>
       </c>
-      <c r="L64" s="507"/>
+      <c r="L64" s="504"/>
       <c r="P64" s="50"/>
       <c r="Q64" s="7"/>
       <c r="S64" s="121"/>
@@ -42217,17 +42311,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="509" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
-      <c r="F1" s="509"/>
-      <c r="G1" s="509"/>
-      <c r="H1" s="509"/>
-      <c r="I1" s="509"/>
-      <c r="J1" s="509"/>
-      <c r="K1" s="509"/>
+      <c r="C1" s="506" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="506"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -42257,17 +42351,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="510" t="s">
+      <c r="B3" s="507" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="511"/>
+      <c r="C3" s="508"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="512" t="s">
+      <c r="H3" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="512"/>
+      <c r="I3" s="509"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -42296,14 +42390,14 @@
       <c r="D4" s="23">
         <v>44320</v>
       </c>
-      <c r="E4" s="513" t="s">
+      <c r="E4" s="510" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="514"/>
-      <c r="H4" s="515" t="s">
+      <c r="F4" s="511"/>
+      <c r="H4" s="512" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="516"/>
+      <c r="I4" s="513"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -42506,7 +42600,7 @@
         <v>5693</v>
       </c>
       <c r="D8" s="141" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E8" s="136">
         <v>44324</v>
@@ -42525,7 +42619,7 @@
         <v>44324</v>
       </c>
       <c r="K8" s="158" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L8" s="46">
         <f>16387.84+400+4000</f>
@@ -42569,7 +42663,7 @@
         <v>14613</v>
       </c>
       <c r="D9" s="141" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E9" s="136">
         <v>44325</v>
@@ -42623,7 +42717,7 @@
         <v>11047</v>
       </c>
       <c r="D10" s="140" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E10" s="136">
         <v>44326</v>
@@ -42642,7 +42736,7 @@
         <v>44326</v>
       </c>
       <c r="K10" s="160" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L10" s="53">
         <v>3750</v>
@@ -42683,7 +42777,7 @@
         <v>3360</v>
       </c>
       <c r="D11" s="139" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E11" s="136">
         <v>44327</v>
@@ -42737,7 +42831,7 @@
         <v>4614</v>
       </c>
       <c r="D12" s="139" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E12" s="136">
         <v>44328</v>
@@ -42845,7 +42939,7 @@
         <v>4933</v>
       </c>
       <c r="D14" s="140" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E14" s="136">
         <v>44330</v>
@@ -42900,7 +42994,7 @@
         <v>11142</v>
       </c>
       <c r="D15" s="139" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E15" s="136">
         <v>44331</v>
@@ -42919,7 +43013,7 @@
         <v>44331</v>
       </c>
       <c r="K15" s="158" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L15" s="46">
         <f>15306.71+400+4000</f>
@@ -42962,7 +43056,7 @@
         <v>23261</v>
       </c>
       <c r="D16" s="139" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E16" s="136">
         <v>44332</v>
@@ -43016,7 +43110,7 @@
         <v>6966</v>
       </c>
       <c r="D17" s="141" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E17" s="136">
         <v>44333</v>
@@ -43072,7 +43166,7 @@
         <v>391</v>
       </c>
       <c r="D18" s="139" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E18" s="136">
         <v>44334</v>
@@ -43126,7 +43220,7 @@
         <v>9909</v>
       </c>
       <c r="D19" s="139" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E19" s="136">
         <v>44335</v>
@@ -43183,7 +43277,7 @@
         <v>7182</v>
       </c>
       <c r="D20" s="139" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E20" s="136">
         <v>44336</v>
@@ -43237,7 +43331,7 @@
         <v>7034</v>
       </c>
       <c r="D21" s="139" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E21" s="136">
         <v>44337</v>
@@ -43293,7 +43387,7 @@
         <v>1580</v>
       </c>
       <c r="D22" s="139" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E22" s="136">
         <v>44338</v>
@@ -43312,7 +43406,7 @@
         <v>44338</v>
       </c>
       <c r="K22" s="165" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L22" s="61">
         <f>16782.75+400+4000</f>
@@ -43356,7 +43450,7 @@
         <v>9277</v>
       </c>
       <c r="D23" s="139" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E23" s="136">
         <v>44339</v>
@@ -43410,7 +43504,7 @@
         <v>11229</v>
       </c>
       <c r="D24" s="139" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E24" s="136">
         <v>44340</v>
@@ -43461,7 +43555,7 @@
         <v>4562</v>
       </c>
       <c r="D25" s="139" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E25" s="136">
         <v>44341</v>
@@ -43614,7 +43708,7 @@
         <v>290</v>
       </c>
       <c r="D28" s="141" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E28" s="136">
         <v>44344</v>
@@ -43666,7 +43760,7 @@
         <v>6801</v>
       </c>
       <c r="D29" s="143" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E29" s="136">
         <v>44345</v>
@@ -43718,7 +43812,7 @@
         <v>20794</v>
       </c>
       <c r="D30" s="143" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E30" s="136">
         <v>44346</v>
@@ -43768,7 +43862,7 @@
         <v>12561</v>
       </c>
       <c r="D31" s="143" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E31" s="136">
         <v>44347</v>
@@ -43787,7 +43881,7 @@
         <v>44347</v>
       </c>
       <c r="K31" s="313" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L31" s="75">
         <v>31015</v>
@@ -43880,7 +43974,7 @@
         <v>4608</v>
       </c>
       <c r="D33" s="312" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E33" s="136">
         <v>44349</v>
@@ -43899,7 +43993,7 @@
         <v>44349</v>
       </c>
       <c r="K33" s="172" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L33" s="71">
         <v>1647</v>
@@ -43936,7 +44030,7 @@
         <v>11503</v>
       </c>
       <c r="D34" s="267" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E34" s="136">
         <v>44350</v>
@@ -44037,7 +44131,7 @@
         <v>11553</v>
       </c>
       <c r="D36" s="242" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E36" s="136">
         <v>44352</v>
@@ -44056,7 +44150,7 @@
         <v>44352</v>
       </c>
       <c r="K36" s="243" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L36" s="6">
         <f>16003.63+4000+400</f>
@@ -44095,7 +44189,7 @@
         <v>16130</v>
       </c>
       <c r="D37" s="242" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E37" s="136">
         <v>44353</v>
@@ -44121,7 +44215,7 @@
         <v>16035</v>
       </c>
       <c r="O37" s="47" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P37" s="7">
         <f t="shared" si="0"/>
@@ -44185,10 +44279,10 @@
       <c r="H39" s="138"/>
       <c r="I39" s="69"/>
       <c r="J39" s="325" t="s">
+        <v>547</v>
+      </c>
+      <c r="K39" s="243" t="s">
         <v>548</v>
-      </c>
-      <c r="K39" s="243" t="s">
-        <v>549</v>
       </c>
       <c r="L39" s="71">
         <f>9180+10425+10260</f>
@@ -44226,7 +44320,7 @@
       <c r="H40" s="138"/>
       <c r="I40" s="69"/>
       <c r="J40" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K40" s="172" t="s">
         <v>136</v>
@@ -44274,7 +44368,7 @@
       <c r="H41" s="138"/>
       <c r="I41" s="69"/>
       <c r="J41" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K41" s="172" t="s">
         <v>371</v>
@@ -44322,10 +44416,10 @@
       <c r="H42" s="138"/>
       <c r="I42" s="69"/>
       <c r="J42" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K42" s="282" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L42" s="71">
         <v>17400</v>
@@ -44370,10 +44464,10 @@
       <c r="H43" s="138"/>
       <c r="I43" s="69"/>
       <c r="J43" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K43" s="172" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L43" s="71">
         <v>5046</v>
@@ -44418,10 +44512,10 @@
       <c r="H44" s="138"/>
       <c r="I44" s="69"/>
       <c r="J44" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K44" s="172" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L44" s="71">
         <v>11500.24</v>
@@ -44466,10 +44560,10 @@
       <c r="H45" s="138"/>
       <c r="I45" s="69"/>
       <c r="J45" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K45" s="326" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L45" s="71">
         <v>357005</v>
@@ -44514,10 +44608,10 @@
       <c r="H46" s="138"/>
       <c r="I46" s="69"/>
       <c r="J46" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K46" s="282" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L46" s="75">
         <v>6095.81</v>
@@ -44562,12 +44656,12 @@
       <c r="H47" s="138"/>
       <c r="I47" s="69"/>
       <c r="J47" s="325" t="s">
-        <v>548</v>
-      </c>
-      <c r="K47" s="466" t="s">
-        <v>715</v>
-      </c>
-      <c r="L47" s="467">
+        <v>547</v>
+      </c>
+      <c r="K47" s="463" t="s">
+        <v>714</v>
+      </c>
+      <c r="L47" s="464">
         <v>11746.93</v>
       </c>
       <c r="M47" s="77">
@@ -44610,10 +44704,10 @@
       <c r="H48" s="138"/>
       <c r="I48" s="69"/>
       <c r="J48" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K48" s="172" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L48" s="75">
         <v>3598</v>
@@ -44654,10 +44748,10 @@
       <c r="H49" s="138"/>
       <c r="I49" s="69"/>
       <c r="J49" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K49" s="172" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L49" s="75">
         <v>30868.02</v>
@@ -44688,7 +44782,7 @@
         <v>56798.82</v>
       </c>
       <c r="D50" s="242" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E50" s="149"/>
       <c r="F50" s="74"/>
@@ -44696,10 +44790,10 @@
       <c r="H50" s="138"/>
       <c r="I50" s="69"/>
       <c r="J50" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K50" s="172" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L50" s="75">
         <v>798</v>
@@ -44732,10 +44826,10 @@
       <c r="H51" s="138"/>
       <c r="I51" s="69"/>
       <c r="J51" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K51" s="172" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L51" s="75">
         <f>398.99+421.34+498.99+398.99+199.06</f>
@@ -44769,10 +44863,10 @@
       <c r="H52" s="138"/>
       <c r="I52" s="69"/>
       <c r="J52" s="325" t="s">
-        <v>548</v>
-      </c>
-      <c r="K52" s="463" t="s">
-        <v>711</v>
+        <v>547</v>
+      </c>
+      <c r="K52" s="460" t="s">
+        <v>710</v>
       </c>
       <c r="L52" s="75">
         <f>1162.5+186</f>
@@ -44806,10 +44900,10 @@
       <c r="H53" s="138"/>
       <c r="I53" s="69"/>
       <c r="J53" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K53" s="172" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L53" s="75">
         <v>22386.25</v>
@@ -44842,10 +44936,10 @@
       <c r="H54" s="138"/>
       <c r="I54" s="69"/>
       <c r="J54" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K54" s="243" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L54" s="75">
         <v>1032</v>
@@ -44878,10 +44972,10 @@
       <c r="H55" s="138"/>
       <c r="I55" s="69"/>
       <c r="J55" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K55" s="144" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L55" s="75">
         <v>30500</v>
@@ -44916,10 +45010,10 @@
       <c r="H56" s="145"/>
       <c r="I56" s="80"/>
       <c r="J56" s="325" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K56" s="288" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L56" s="50">
         <v>3875.47</v>
@@ -44950,10 +45044,10 @@
       <c r="H57" s="145"/>
       <c r="I57" s="80"/>
       <c r="J57" s="325" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K57" s="157" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L57" s="50">
         <v>1264.4000000000001</v>
@@ -44984,10 +45078,10 @@
       <c r="H58" s="145"/>
       <c r="I58" s="80"/>
       <c r="J58" s="67" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K58" s="243" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L58" s="50">
         <f>1394.81+986.84</f>
@@ -45019,7 +45113,7 @@
       <c r="H59" s="145"/>
       <c r="I59" s="80"/>
       <c r="J59" s="67" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K59" s="81" t="s">
         <v>370</v>
@@ -45053,10 +45147,10 @@
       <c r="H60" s="73"/>
       <c r="I60" s="80"/>
       <c r="J60" s="67" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K60" s="378" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L60" s="50">
         <v>10000</v>
@@ -45180,71 +45274,71 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="496" t="s">
+      <c r="H64" s="493" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="497"/>
+      <c r="I64" s="494"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="498">
+      <c r="K64" s="495">
         <f>I62+L62</f>
         <v>779034.56000000017</v>
       </c>
-      <c r="L64" s="499"/>
-      <c r="M64" s="500">
+      <c r="L64" s="496"/>
+      <c r="M64" s="497">
         <f>M62+N62</f>
         <v>4478181</v>
       </c>
-      <c r="N64" s="501"/>
+      <c r="N64" s="498"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="508" t="s">
+      <c r="D65" s="505" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="508"/>
+      <c r="E65" s="505"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>3602842.44</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="487">
+      <c r="P65" s="484">
         <f>P62+Q62</f>
         <v>5004562.5599999996</v>
       </c>
-      <c r="Q65" s="488"/>
+      <c r="Q65" s="485"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="524" t="s">
-        <v>529</v>
-      </c>
-      <c r="C66" s="525"/>
-      <c r="D66" s="508" t="s">
-        <v>503</v>
-      </c>
-      <c r="E66" s="508"/>
+      <c r="B66" s="521" t="s">
+        <v>528</v>
+      </c>
+      <c r="C66" s="522"/>
+      <c r="D66" s="505" t="s">
+        <v>502</v>
+      </c>
+      <c r="E66" s="505"/>
       <c r="F66" s="95">
         <v>-3854423.8</v>
       </c>
-      <c r="I66" s="490" t="s">
+      <c r="I66" s="487" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="491"/>
-      <c r="K66" s="492">
+      <c r="J66" s="488"/>
+      <c r="K66" s="489">
         <f>F68+F69+F70</f>
         <v>14998.430000000139</v>
       </c>
-      <c r="L66" s="493"/>
+      <c r="L66" s="490"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
     <row r="67" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="526"/>
-      <c r="C67" s="527"/>
+      <c r="B67" s="523"/>
+      <c r="C67" s="524"/>
       <c r="D67" s="108"/>
       <c r="E67" s="60"/>
       <c r="F67" s="109">
@@ -45259,8 +45353,8 @@
       <c r="S67" s="50"/>
     </row>
     <row r="68" spans="2:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="528"/>
-      <c r="C68" s="529"/>
+      <c r="B68" s="525"/>
+      <c r="C68" s="526"/>
       <c r="E68" s="60" t="s">
         <v>20</v>
       </c>
@@ -45273,11 +45367,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="494">
+      <c r="K68" s="491">
         <f>-C4</f>
         <v>-249311.35999999999</v>
       </c>
-      <c r="L68" s="495"/>
+      <c r="L68" s="492"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -45301,22 +45395,22 @@
       <c r="C70" s="119">
         <v>44353</v>
       </c>
-      <c r="D70" s="502" t="s">
+      <c r="D70" s="499" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="503"/>
+      <c r="E70" s="500"/>
       <c r="F70" s="120">
         <v>255764.39</v>
       </c>
-      <c r="I70" s="504" t="s">
+      <c r="I70" s="501" t="s">
         <v>431</v>
       </c>
-      <c r="J70" s="505"/>
-      <c r="K70" s="506">
+      <c r="J70" s="502"/>
+      <c r="K70" s="503">
         <f>K66+K68</f>
         <v>-234312.92999999985</v>
       </c>
-      <c r="L70" s="507"/>
+      <c r="L70" s="504"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 07  JULIO  2021/BALANCE ABASTOS   J U L I O        2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 07  JULIO  2021/BALANCE ABASTOS   J U L I O        2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="10725" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="10725" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O     2 0 2 1    " sheetId="1" r:id="rId1"/>
@@ -5511,31 +5511,29 @@
     <xf numFmtId="44" fontId="7" fillId="19" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="19" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="19" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="54" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="57" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5577,26 +5575,31 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="15" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5611,14 +5614,14 @@
     <xf numFmtId="166" fontId="6" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5637,6 +5640,15 @@
     </xf>
     <xf numFmtId="44" fontId="35" fillId="10" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5716,26 +5728,32 @@
     <xf numFmtId="44" fontId="49" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="53" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="53" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="53" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="53" fillId="8" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="8" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5776,32 +5794,17 @@
     <xf numFmtId="44" fontId="16" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="16" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="8" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="8" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="53" fillId="8" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5812,9 +5815,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="54" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="57" fillId="4" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="16" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -10927,17 +10927,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="506" t="s">
+      <c r="C1" s="487" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
-      <c r="K1" s="506"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -10968,17 +10968,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="488" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="508"/>
+      <c r="C3" s="489"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="509" t="s">
+      <c r="H3" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="509"/>
+      <c r="I3" s="490"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -11007,14 +11007,14 @@
       <c r="D4" s="23">
         <v>44201</v>
       </c>
-      <c r="E4" s="510" t="s">
+      <c r="E4" s="491" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="511"/>
-      <c r="H4" s="512" t="s">
+      <c r="F4" s="492"/>
+      <c r="H4" s="493" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="513"/>
+      <c r="I4" s="494"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -13625,61 +13625,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="493" t="s">
+      <c r="H64" s="495" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="494"/>
+      <c r="I64" s="496"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="495">
+      <c r="K64" s="497">
         <f>I62+L62</f>
         <v>360753.85</v>
       </c>
-      <c r="L64" s="496"/>
-      <c r="M64" s="497">
+      <c r="L64" s="498"/>
+      <c r="M64" s="499">
         <f>M62+N62</f>
         <v>2886514.7</v>
       </c>
-      <c r="N64" s="498"/>
+      <c r="N64" s="500"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="505" t="s">
+      <c r="D65" s="507" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="505"/>
+      <c r="E65" s="507"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2365880.5699999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="484">
+      <c r="P65" s="508">
         <f>P62+Q62</f>
         <v>3321521.28</v>
       </c>
-      <c r="Q65" s="485"/>
+      <c r="Q65" s="509"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="486" t="s">
+      <c r="D66" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="486"/>
+      <c r="E66" s="510"/>
       <c r="F66" s="95">
         <v>-2276696.6800000002</v>
       </c>
-      <c r="I66" s="487" t="s">
+      <c r="I66" s="511" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="488"/>
-      <c r="K66" s="489">
+      <c r="J66" s="512"/>
+      <c r="K66" s="513">
         <f>F68+F69+F70</f>
         <v>344253.98999999964</v>
       </c>
-      <c r="L66" s="490"/>
+      <c r="L66" s="514"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -13713,11 +13713,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="491">
+      <c r="K68" s="515">
         <f>-C4</f>
         <v>-250864.68</v>
       </c>
-      <c r="L68" s="492"/>
+      <c r="L68" s="516"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -13741,22 +13741,22 @@
       <c r="C70" s="119">
         <v>44230</v>
       </c>
-      <c r="D70" s="499" t="s">
+      <c r="D70" s="501" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="500"/>
+      <c r="E70" s="502"/>
       <c r="F70" s="120">
         <v>209541.1</v>
       </c>
-      <c r="I70" s="501" t="s">
+      <c r="I70" s="503" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="502"/>
-      <c r="K70" s="503">
+      <c r="J70" s="504"/>
+      <c r="K70" s="505">
         <f>K66+K68</f>
         <v>93389.309999999648</v>
       </c>
-      <c r="L70" s="504"/>
+      <c r="L70" s="506"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -13860,11 +13860,11 @@
     <sortCondition ref="J35:J54"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="M64:N64"/>
@@ -13872,11 +13872,11 @@
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="K70:L70"/>
     <mergeCell ref="D65:E65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.2" right="0.16" top="0.34" bottom="0.32" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15265,7 +15265,7 @@
   </sheetPr>
   <dimension ref="A1:AG92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F11" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -15301,20 +15301,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="554" t="s">
+      <c r="B1" s="530" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="506" t="s">
+      <c r="C1" s="487" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
-      <c r="K1" s="506"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -15324,7 +15324,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="555"/>
+      <c r="B2" s="531"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -15343,27 +15343,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="537" t="s">
+      <c r="AB2" s="543" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="537"/>
-      <c r="AD2" s="537"/>
-      <c r="AE2" s="537"/>
-      <c r="AF2" s="537"/>
-      <c r="AG2" s="537"/>
+      <c r="AC2" s="543"/>
+      <c r="AD2" s="543"/>
+      <c r="AE2" s="543"/>
+      <c r="AF2" s="543"/>
+      <c r="AG2" s="543"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="488" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="508"/>
+      <c r="C3" s="489"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="509" t="s">
+      <c r="H3" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="509"/>
+      <c r="I3" s="490"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="527" t="s">
+      <c r="P3" s="533" t="s">
         <v>562</v>
       </c>
       <c r="Q3" s="393"/>
@@ -15384,12 +15384,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="537"/>
-      <c r="AC3" s="537"/>
-      <c r="AD3" s="537"/>
-      <c r="AE3" s="537"/>
-      <c r="AF3" s="537"/>
-      <c r="AG3" s="537"/>
+      <c r="AB3" s="543"/>
+      <c r="AC3" s="543"/>
+      <c r="AD3" s="543"/>
+      <c r="AE3" s="543"/>
+      <c r="AF3" s="543"/>
+      <c r="AG3" s="543"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -15402,14 +15402,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="510" t="s">
+      <c r="E4" s="491" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="511"/>
-      <c r="H4" s="512" t="s">
+      <c r="F4" s="492"/>
+      <c r="H4" s="493" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="513"/>
+      <c r="I4" s="494"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -15420,7 +15420,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="527"/>
+      <c r="P4" s="533"/>
       <c r="Q4" s="393"/>
       <c r="R4" s="30"/>
       <c r="S4" s="31"/>
@@ -15435,16 +15435,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="538" t="s">
+      <c r="AB4" s="544" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="539"/>
+      <c r="AC4" s="545"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="540" t="s">
+      <c r="AE4" s="546" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="540"/>
-      <c r="AG4" s="540"/>
+      <c r="AF4" s="546"/>
+      <c r="AG4" s="546"/>
     </row>
     <row r="5" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
@@ -16856,10 +16856,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="545" t="s">
+      <c r="AE23" s="551" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="546"/>
+      <c r="AF23" s="552"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -17003,11 +17003,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="547" t="s">
+      <c r="AE25" s="553" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="548"/>
-      <c r="AG25" s="551">
+      <c r="AF25" s="554"/>
+      <c r="AG25" s="557">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -17078,9 +17078,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="549"/>
-      <c r="AF26" s="550"/>
-      <c r="AG26" s="552"/>
+      <c r="AE26" s="555"/>
+      <c r="AF26" s="556"/>
+      <c r="AG26" s="558"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
@@ -17255,10 +17255,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="541" t="s">
+      <c r="AB29" s="547" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="543">
+      <c r="AC29" s="549">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -17294,11 +17294,11 @@
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="528">
+      <c r="P30" s="534">
         <f>SUM(P5:P29)</f>
         <v>-163726</v>
       </c>
-      <c r="Q30" s="528"/>
+      <c r="Q30" s="534"/>
       <c r="R30" s="7">
         <v>0</v>
       </c>
@@ -17312,8 +17312,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="542"/>
-      <c r="AC30" s="544"/>
+      <c r="AB30" s="548"/>
+      <c r="AC30" s="550"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -18675,21 +18675,21 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="493" t="s">
+      <c r="H64" s="495" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="494"/>
+      <c r="I64" s="496"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="495">
+      <c r="K64" s="497">
         <f>I62+L62</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L64" s="496"/>
-      <c r="M64" s="497">
+      <c r="L64" s="498"/>
+      <c r="M64" s="499">
         <f>M62+N62</f>
         <v>2936130</v>
       </c>
-      <c r="N64" s="498"/>
+      <c r="N64" s="500"/>
       <c r="O64" s="367"/>
       <c r="P64" s="367"/>
       <c r="Q64" s="367"/>
@@ -18704,40 +18704,40 @@
       <c r="AG64" s="327"/>
     </row>
     <row r="65" spans="2:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="505" t="s">
+      <c r="D65" s="507" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="505"/>
+      <c r="E65" s="507"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2702101.7199999997</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="R65" s="484">
+      <c r="R65" s="508">
         <f>R62+S62</f>
         <v>3138957.44</v>
       </c>
-      <c r="S65" s="485"/>
+      <c r="S65" s="509"/>
       <c r="U65" s="50"/>
     </row>
     <row r="66" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="486" t="s">
+      <c r="D66" s="510" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="486"/>
+      <c r="E66" s="510"/>
       <c r="F66" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I66" s="487" t="s">
+      <c r="I66" s="511" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="488"/>
-      <c r="K66" s="489">
+      <c r="J66" s="512"/>
+      <c r="K66" s="513">
         <f>F68+F69+F70</f>
         <v>381077.48999999953</v>
       </c>
-      <c r="L66" s="490"/>
+      <c r="L66" s="514"/>
       <c r="R66" s="50"/>
       <c r="U66" s="107"/>
     </row>
@@ -18771,11 +18771,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="491">
+      <c r="K68" s="515">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L68" s="492"/>
+      <c r="L68" s="516"/>
       <c r="M68" s="116"/>
       <c r="R68" s="50"/>
       <c r="S68" s="7"/>
@@ -18799,22 +18799,22 @@
       <c r="C70" s="119">
         <v>44377</v>
       </c>
-      <c r="D70" s="499" t="s">
+      <c r="D70" s="501" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="500"/>
+      <c r="E70" s="502"/>
       <c r="F70" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I70" s="501" t="s">
+      <c r="I70" s="503" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="502"/>
-      <c r="K70" s="503">
+      <c r="J70" s="504"/>
+      <c r="K70" s="505">
         <f>K66+K68</f>
         <v>125313.09999999951</v>
       </c>
-      <c r="L70" s="504"/>
+      <c r="L70" s="506"/>
       <c r="R70" s="50"/>
       <c r="S70" s="7"/>
       <c r="U70" s="121"/>
@@ -18830,14 +18830,14 @@
       <c r="S71" s="7"/>
     </row>
     <row r="72" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I72" s="529" t="s">
+      <c r="I72" s="535" t="s">
         <v>610</v>
       </c>
-      <c r="J72" s="530"/>
-      <c r="K72" s="533">
+      <c r="J72" s="536"/>
+      <c r="K72" s="539">
         <v>163726</v>
       </c>
-      <c r="L72" s="534"/>
+      <c r="L72" s="540"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
@@ -18846,10 +18846,10 @@
       <c r="C73" s="128"/>
       <c r="D73" s="129"/>
       <c r="E73" s="7"/>
-      <c r="I73" s="531"/>
-      <c r="J73" s="532"/>
-      <c r="K73" s="535"/>
-      <c r="L73" s="536"/>
+      <c r="I73" s="537"/>
+      <c r="J73" s="538"/>
+      <c r="K73" s="541"/>
+      <c r="L73" s="542"/>
       <c r="M73" s="2"/>
       <c r="N73" s="60"/>
       <c r="O73" s="165"/>
@@ -18901,7 +18901,7 @@
       <c r="C76" s="130"/>
       <c r="E76" s="7"/>
       <c r="M76" s="4"/>
-      <c r="AC76" s="553"/>
+      <c r="AC76" s="532"/>
       <c r="AD76" s="342"/>
       <c r="AE76" s="342"/>
       <c r="AF76" s="342"/>
@@ -18914,7 +18914,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="273"/>
       <c r="M77" s="4"/>
-      <c r="AC77" s="553"/>
+      <c r="AC77" s="532"/>
       <c r="AD77" s="342"/>
       <c r="AE77" s="342"/>
       <c r="AF77" s="342"/>
@@ -19008,22 +19008,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="AC76:AC77"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="I72:J73"/>
@@ -19039,6 +19023,22 @@
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AE25:AF26"/>
     <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AC76:AC77"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.49" right="0.23622047244094491" top="0.47244094488188981" bottom="0.27559055118110237" header="0.70866141732283472" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20376,25 +20376,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="554" t="s">
+      <c r="B1" s="530" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="506" t="s">
+      <c r="C1" s="487" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
-      <c r="K1" s="506"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="555"/>
+      <c r="B2" s="531"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -20404,27 +20404,27 @@
       <c r="L2" s="12"/>
       <c r="M2" s="3"/>
       <c r="N2" s="6"/>
-      <c r="Q2" s="537" t="s">
+      <c r="Q2" s="543" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="537"/>
-      <c r="S2" s="537"/>
-      <c r="T2" s="537"/>
-      <c r="U2" s="537"/>
-      <c r="V2" s="537"/>
+      <c r="R2" s="543"/>
+      <c r="S2" s="543"/>
+      <c r="T2" s="543"/>
+      <c r="U2" s="543"/>
+      <c r="V2" s="543"/>
     </row>
     <row r="3" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="488" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="508"/>
+      <c r="C3" s="489"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="509" t="s">
+      <c r="H3" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="509"/>
+      <c r="I3" s="490"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -20432,12 +20432,12 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="Q3" s="537"/>
-      <c r="R3" s="537"/>
-      <c r="S3" s="537"/>
-      <c r="T3" s="537"/>
-      <c r="U3" s="537"/>
-      <c r="V3" s="537"/>
+      <c r="Q3" s="543"/>
+      <c r="R3" s="543"/>
+      <c r="S3" s="543"/>
+      <c r="T3" s="543"/>
+      <c r="U3" s="543"/>
+      <c r="V3" s="543"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -20450,14 +20450,14 @@
       <c r="D4" s="23">
         <v>44353</v>
       </c>
-      <c r="E4" s="510" t="s">
+      <c r="E4" s="491" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="511"/>
-      <c r="H4" s="512" t="s">
+      <c r="F4" s="492"/>
+      <c r="H4" s="493" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="513"/>
+      <c r="I4" s="494"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -20469,16 +20469,16 @@
       </c>
       <c r="O4" s="365"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="538" t="s">
+      <c r="Q4" s="544" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="539"/>
+      <c r="R4" s="545"/>
       <c r="S4" s="99"/>
-      <c r="T4" s="540" t="s">
+      <c r="T4" s="546" t="s">
         <v>567</v>
       </c>
-      <c r="U4" s="540"/>
-      <c r="V4" s="540"/>
+      <c r="U4" s="546"/>
+      <c r="V4" s="546"/>
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21477,10 +21477,10 @@
         <v>0</v>
       </c>
       <c r="S23" s="99"/>
-      <c r="T23" s="545" t="s">
+      <c r="T23" s="551" t="s">
         <v>564</v>
       </c>
-      <c r="U23" s="546"/>
+      <c r="U23" s="552"/>
       <c r="V23" s="339">
         <f>SUM(V6:V22)</f>
         <v>2323600</v>
@@ -21584,11 +21584,11 @@
         <v>138607</v>
       </c>
       <c r="S25" s="99"/>
-      <c r="T25" s="547" t="s">
+      <c r="T25" s="553" t="s">
         <v>565</v>
       </c>
-      <c r="U25" s="548"/>
-      <c r="V25" s="551">
+      <c r="U25" s="554"/>
+      <c r="V25" s="557">
         <f>R29-V23</f>
         <v>163726</v>
       </c>
@@ -21637,9 +21637,9 @@
         <v>107480</v>
       </c>
       <c r="S26" s="99"/>
-      <c r="T26" s="549"/>
-      <c r="U26" s="550"/>
-      <c r="V26" s="552"/>
+      <c r="T26" s="555"/>
+      <c r="U26" s="556"/>
+      <c r="V26" s="558"/>
       <c r="W26" s="99"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21762,10 +21762,10 @@
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="29"/>
-      <c r="Q29" s="541" t="s">
+      <c r="Q29" s="547" t="s">
         <v>562</v>
       </c>
-      <c r="R29" s="543">
+      <c r="R29" s="549">
         <f>SUM(R5:R28)</f>
         <v>2487326</v>
       </c>
@@ -21802,8 +21802,8 @@
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="373"/>
-      <c r="Q30" s="542"/>
-      <c r="R30" s="544"/>
+      <c r="Q30" s="548"/>
+      <c r="R30" s="550"/>
       <c r="S30" s="99"/>
       <c r="T30" s="99"/>
       <c r="U30" s="99"/>
@@ -22428,21 +22428,21 @@
       <c r="A50" s="60"/>
       <c r="B50" s="100"/>
       <c r="C50" s="4"/>
-      <c r="H50" s="493" t="s">
+      <c r="H50" s="495" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="494"/>
+      <c r="I50" s="496"/>
       <c r="J50" s="101"/>
-      <c r="K50" s="495">
+      <c r="K50" s="497">
         <f>I48+L48</f>
         <v>339830.06000000006</v>
       </c>
-      <c r="L50" s="496"/>
-      <c r="M50" s="497">
+      <c r="L50" s="498"/>
+      <c r="M50" s="499">
         <f>M48+N48</f>
         <v>612530</v>
       </c>
-      <c r="N50" s="498"/>
+      <c r="N50" s="500"/>
       <c r="O50" s="367"/>
       <c r="P50" s="102"/>
       <c r="Q50" s="320"/>
@@ -22454,10 +22454,10 @@
       <c r="W50" s="327"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D51" s="505" t="s">
+      <c r="D51" s="507" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="505"/>
+      <c r="E51" s="507"/>
       <c r="F51" s="103">
         <f>F48-K50-C48</f>
         <v>2702101.7199999997</v>
@@ -22466,22 +22466,22 @@
       <c r="J51" s="105"/>
     </row>
     <row r="52" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D52" s="486" t="s">
+      <c r="D52" s="510" t="s">
         <v>502</v>
       </c>
-      <c r="E52" s="486"/>
+      <c r="E52" s="510"/>
       <c r="F52" s="95">
         <v>-2720820.95</v>
       </c>
-      <c r="I52" s="487" t="s">
+      <c r="I52" s="511" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="488"/>
-      <c r="K52" s="489">
+      <c r="J52" s="512"/>
+      <c r="K52" s="513">
         <f>F54+F55+F56</f>
         <v>381077.72999999952</v>
       </c>
-      <c r="L52" s="490"/>
+      <c r="L52" s="514"/>
     </row>
     <row r="53" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D53" s="108"/>
@@ -22510,11 +22510,11 @@
         <v>21</v>
       </c>
       <c r="J54" s="115"/>
-      <c r="K54" s="491">
+      <c r="K54" s="515">
         <f>-C4</f>
         <v>-255764.39</v>
       </c>
-      <c r="L54" s="492"/>
+      <c r="L54" s="516"/>
       <c r="M54" s="116"/>
     </row>
     <row r="55" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -22532,22 +22532,22 @@
       <c r="C56" s="119">
         <v>44377</v>
       </c>
-      <c r="D56" s="499" t="s">
+      <c r="D56" s="501" t="s">
         <v>24</v>
       </c>
-      <c r="E56" s="500"/>
+      <c r="E56" s="502"/>
       <c r="F56" s="120">
         <v>308642.71999999997</v>
       </c>
-      <c r="I56" s="501" t="s">
+      <c r="I56" s="503" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="502"/>
-      <c r="K56" s="503">
+      <c r="J56" s="504"/>
+      <c r="K56" s="505">
         <f>K52+K54</f>
         <v>125313.3399999995</v>
       </c>
-      <c r="L56" s="504"/>
+      <c r="L56" s="506"/>
     </row>
     <row r="57" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C57" s="122"/>
@@ -22603,7 +22603,7 @@
       <c r="C62" s="130"/>
       <c r="E62" s="7"/>
       <c r="M62" s="4"/>
-      <c r="R62" s="553"/>
+      <c r="R62" s="532"/>
       <c r="S62" s="379"/>
       <c r="T62" s="379"/>
       <c r="U62" s="379"/>
@@ -22616,7 +22616,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="273"/>
       <c r="M63" s="4"/>
-      <c r="R63" s="553"/>
+      <c r="R63" s="532"/>
       <c r="S63" s="379"/>
       <c r="T63" s="379"/>
       <c r="U63" s="379"/>
@@ -22693,23 +22693,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Q2:V3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
     <mergeCell ref="R62:R63"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -22719,6 +22702,23 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="Q2:V3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22734,7 +22734,7 @@
   <dimension ref="A1:AG97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="P58" sqref="P58"/>
@@ -22772,20 +22772,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="554" t="s">
+      <c r="B1" s="530" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="506" t="s">
+      <c r="C1" s="487" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
-      <c r="K1" s="506"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="W1" s="209"/>
@@ -22795,7 +22795,7 @@
       <c r="Y1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="555"/>
+      <c r="B2" s="531"/>
       <c r="C2" s="8"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -22814,27 +22814,27 @@
       <c r="Y2" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="537" t="s">
+      <c r="AB2" s="543" t="s">
         <v>596</v>
       </c>
-      <c r="AC2" s="537"/>
-      <c r="AD2" s="537"/>
-      <c r="AE2" s="537"/>
-      <c r="AF2" s="537"/>
-      <c r="AG2" s="537"/>
+      <c r="AC2" s="543"/>
+      <c r="AD2" s="543"/>
+      <c r="AE2" s="543"/>
+      <c r="AF2" s="543"/>
+      <c r="AG2" s="543"/>
     </row>
     <row r="3" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="488" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="508"/>
+      <c r="C3" s="489"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="509" t="s">
+      <c r="H3" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="509"/>
+      <c r="I3" s="490"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -22842,13 +22842,13 @@
         <v>4</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="P3" s="556" t="s">
+      <c r="P3" s="581" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="558" t="s">
+      <c r="Q3" s="583" t="s">
         <v>665</v>
       </c>
-      <c r="S3" s="559"/>
+      <c r="S3" s="584"/>
       <c r="W3" s="213" t="s">
         <v>54</v>
       </c>
@@ -22858,12 +22858,12 @@
       <c r="Y3" s="198">
         <v>2000</v>
       </c>
-      <c r="AB3" s="537"/>
-      <c r="AC3" s="537"/>
-      <c r="AD3" s="537"/>
-      <c r="AE3" s="537"/>
-      <c r="AF3" s="537"/>
-      <c r="AG3" s="537"/>
+      <c r="AB3" s="543"/>
+      <c r="AC3" s="543"/>
+      <c r="AD3" s="543"/>
+      <c r="AE3" s="543"/>
+      <c r="AF3" s="543"/>
+      <c r="AG3" s="543"/>
     </row>
     <row r="4" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
@@ -22876,14 +22876,14 @@
       <c r="D4" s="23">
         <v>44377</v>
       </c>
-      <c r="E4" s="510" t="s">
+      <c r="E4" s="491" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="511"/>
-      <c r="H4" s="557" t="s">
+      <c r="F4" s="492"/>
+      <c r="H4" s="582" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="513"/>
+      <c r="I4" s="494"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -22894,10 +22894,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="365"/>
-      <c r="P4" s="556"/>
-      <c r="Q4" s="558"/>
+      <c r="P4" s="581"/>
+      <c r="Q4" s="583"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="559"/>
+      <c r="S4" s="584"/>
       <c r="T4" s="30"/>
       <c r="U4" s="30"/>
       <c r="W4" s="213" t="s">
@@ -22909,16 +22909,16 @@
       <c r="Y4" s="217">
         <v>2000</v>
       </c>
-      <c r="AB4" s="538" t="s">
+      <c r="AB4" s="544" t="s">
         <v>527</v>
       </c>
-      <c r="AC4" s="539"/>
+      <c r="AC4" s="545"/>
       <c r="AD4" s="99"/>
-      <c r="AE4" s="540" t="s">
+      <c r="AE4" s="546" t="s">
         <v>567</v>
       </c>
-      <c r="AF4" s="540"/>
-      <c r="AG4" s="540"/>
+      <c r="AF4" s="546"/>
+      <c r="AG4" s="546"/>
     </row>
     <row r="5" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
@@ -23195,7 +23195,7 @@
       </c>
       <c r="Q8" s="447"/>
       <c r="R8" s="7">
-        <f t="shared" ref="R8:R43" si="1">C8+I8+M8+N8+L8</f>
+        <f t="shared" ref="R8:R38" si="1">C8+I8+M8+N8+L8</f>
         <v>141476.5</v>
       </c>
       <c r="S8" s="201">
@@ -24355,10 +24355,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="99"/>
-      <c r="AE23" s="545" t="s">
+      <c r="AE23" s="551" t="s">
         <v>564</v>
       </c>
-      <c r="AF23" s="546"/>
+      <c r="AF23" s="552"/>
       <c r="AG23" s="339">
         <f>SUM(AG6:AG22)</f>
         <v>2323600</v>
@@ -24490,11 +24490,11 @@
         <v>138607</v>
       </c>
       <c r="AD25" s="99"/>
-      <c r="AE25" s="547" t="s">
+      <c r="AE25" s="553" t="s">
         <v>565</v>
       </c>
-      <c r="AF25" s="548"/>
-      <c r="AG25" s="551">
+      <c r="AF25" s="554"/>
+      <c r="AG25" s="557">
         <f>AC29-AG23</f>
         <v>163726</v>
       </c>
@@ -24563,9 +24563,9 @@
         <v>107480</v>
       </c>
       <c r="AD26" s="99"/>
-      <c r="AE26" s="549"/>
-      <c r="AF26" s="550"/>
-      <c r="AG26" s="552"/>
+      <c r="AE26" s="555"/>
+      <c r="AF26" s="556"/>
+      <c r="AG26" s="558"/>
     </row>
     <row r="27" spans="1:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
@@ -24764,10 +24764,10 @@
       </c>
       <c r="X29" s="220"/>
       <c r="Y29" s="218"/>
-      <c r="AB29" s="541" t="s">
+      <c r="AB29" s="547" t="s">
         <v>562</v>
       </c>
-      <c r="AC29" s="543">
+      <c r="AC29" s="549">
         <f>SUM(AC5:AC28)</f>
         <v>2487326</v>
       </c>
@@ -24830,8 +24830,8 @@
       </c>
       <c r="X30" s="221"/>
       <c r="Y30" s="207"/>
-      <c r="AB30" s="542"/>
-      <c r="AC30" s="544"/>
+      <c r="AB30" s="548"/>
+      <c r="AC30" s="550"/>
       <c r="AD30" s="99"/>
       <c r="AE30" s="99"/>
       <c r="AF30" s="99"/>
@@ -25218,7 +25218,7 @@
       <c r="J37" s="233"/>
       <c r="K37" s="144"/>
       <c r="L37" s="358"/>
-      <c r="M37" s="585">
+      <c r="M37" s="484">
         <v>52350</v>
       </c>
       <c r="N37" s="456">
@@ -25280,10 +25280,10 @@
       <c r="J38" s="233"/>
       <c r="K38" s="144"/>
       <c r="L38" s="358"/>
-      <c r="M38" s="586">
+      <c r="M38" s="485">
         <v>185490</v>
       </c>
-      <c r="N38" s="587">
+      <c r="N38" s="486">
         <v>24490</v>
       </c>
       <c r="O38" s="7"/>
@@ -25324,11 +25324,11 @@
       <c r="J39" s="233"/>
       <c r="K39" s="361"/>
       <c r="L39" s="357"/>
-      <c r="M39" s="568">
+      <c r="M39" s="576">
         <f>SUM(M5:M38)</f>
         <v>3989872.22</v>
       </c>
-      <c r="N39" s="570">
+      <c r="N39" s="578">
         <f>SUM(N5:N38)</f>
         <v>688820.5</v>
       </c>
@@ -25377,8 +25377,8 @@
         <f>1145.91+398.99+423.94+498.99+398.99</f>
         <v>2866.8199999999997</v>
       </c>
-      <c r="M40" s="569"/>
-      <c r="N40" s="571"/>
+      <c r="M40" s="577"/>
+      <c r="N40" s="579"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -25571,10 +25571,10 @@
       <c r="L44" s="358">
         <v>73526</v>
       </c>
-      <c r="M44" s="572" t="s">
+      <c r="M44" s="580" t="s">
         <v>567</v>
       </c>
-      <c r="N44" s="572"/>
+      <c r="N44" s="580"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -26160,7 +26160,7 @@
       <c r="L57" s="458">
         <v>7482</v>
       </c>
-      <c r="M57" s="560">
+      <c r="M57" s="568">
         <f>SUM(M45:M56)</f>
         <v>3316280</v>
       </c>
@@ -26200,7 +26200,7 @@
       <c r="L58" s="458">
         <v>986</v>
       </c>
-      <c r="M58" s="561"/>
+      <c r="M58" s="569"/>
       <c r="N58" s="476"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -26275,10 +26275,10 @@
         <f>1033.33+165.33</f>
         <v>1198.6599999999999</v>
       </c>
-      <c r="M60" s="562" t="s">
+      <c r="M60" s="570" t="s">
         <v>721</v>
       </c>
-      <c r="N60" s="563"/>
+      <c r="N60" s="571"/>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -26351,11 +26351,11 @@
       <c r="L62" s="458">
         <v>22595.71</v>
       </c>
-      <c r="M62" s="564">
+      <c r="M62" s="572">
         <f>M57-M39</f>
         <v>-673592.2200000002</v>
       </c>
-      <c r="N62" s="565"/>
+      <c r="N62" s="573"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -26391,8 +26391,8 @@
       <c r="L63" s="458">
         <v>1064</v>
       </c>
-      <c r="M63" s="566"/>
-      <c r="N63" s="567"/>
+      <c r="M63" s="574"/>
+      <c r="N63" s="575"/>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -26582,16 +26582,16 @@
       <c r="A69" s="60"/>
       <c r="B69" s="100"/>
       <c r="C69" s="4"/>
-      <c r="H69" s="493" t="s">
+      <c r="H69" s="495" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="494"/>
+      <c r="I69" s="496"/>
       <c r="J69" s="101"/>
-      <c r="K69" s="495">
+      <c r="K69" s="497">
         <f>I67+L67</f>
         <v>587206.12</v>
       </c>
-      <c r="L69" s="496"/>
+      <c r="L69" s="498"/>
       <c r="M69" s="471"/>
       <c r="N69" s="472"/>
       <c r="O69" s="367"/>
@@ -26608,40 +26608,40 @@
       <c r="AG69" s="327"/>
     </row>
     <row r="70" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="505" t="s">
+      <c r="D70" s="507" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="505"/>
+      <c r="E70" s="507"/>
       <c r="F70" s="103">
         <f>F67-K69-C67</f>
         <v>3436910.52</v>
       </c>
       <c r="I70" s="104"/>
       <c r="J70" s="105"/>
-      <c r="R70" s="484">
+      <c r="R70" s="508">
         <f>R67+S67</f>
         <v>10503773.959999999</v>
       </c>
-      <c r="S70" s="485"/>
+      <c r="S70" s="509"/>
       <c r="U70" s="50"/>
     </row>
     <row r="71" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="486" t="s">
+      <c r="D71" s="510" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="486"/>
+      <c r="E71" s="510"/>
       <c r="F71" s="95">
         <v>-3290264.27</v>
       </c>
-      <c r="I71" s="487" t="s">
+      <c r="I71" s="511" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="488"/>
-      <c r="K71" s="489">
+      <c r="J71" s="512"/>
+      <c r="K71" s="513">
         <f>F73+F74+F75</f>
         <v>176424.25</v>
       </c>
-      <c r="L71" s="490"/>
+      <c r="L71" s="514"/>
       <c r="R71" s="50"/>
       <c r="U71" s="107"/>
     </row>
@@ -26675,11 +26675,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="115"/>
-      <c r="K73" s="491">
+      <c r="K73" s="515">
         <f>-C4</f>
         <v>-308642.71999999997</v>
       </c>
-      <c r="L73" s="573"/>
+      <c r="L73" s="559"/>
       <c r="R73" s="50"/>
       <c r="S73" s="7"/>
       <c r="U73" s="50"/>
@@ -26700,22 +26700,22 @@
     </row>
     <row r="75" spans="1:33" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="119"/>
-      <c r="D75" s="499" t="s">
+      <c r="D75" s="501" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="500"/>
+      <c r="E75" s="502"/>
       <c r="F75" s="120">
         <v>0</v>
       </c>
-      <c r="I75" s="501" t="s">
+      <c r="I75" s="503" t="s">
         <v>25</v>
       </c>
-      <c r="J75" s="502"/>
-      <c r="K75" s="503">
+      <c r="J75" s="504"/>
+      <c r="K75" s="505">
         <f>K71+K73</f>
         <v>-132218.46999999997</v>
       </c>
-      <c r="L75" s="503"/>
+      <c r="L75" s="505"/>
       <c r="R75" s="50"/>
       <c r="S75" s="7"/>
       <c r="U75" s="121"/>
@@ -26730,14 +26730,14 @@
       <c r="S76" s="7"/>
     </row>
     <row r="77" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="574" t="s">
+      <c r="I77" s="560" t="s">
         <v>610</v>
       </c>
-      <c r="J77" s="575"/>
-      <c r="K77" s="578">
-        <v>0</v>
-      </c>
-      <c r="L77" s="579"/>
+      <c r="J77" s="561"/>
+      <c r="K77" s="564">
+        <v>0</v>
+      </c>
+      <c r="L77" s="565"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
@@ -26746,10 +26746,10 @@
       <c r="C78" s="128"/>
       <c r="D78" s="129"/>
       <c r="E78" s="7"/>
-      <c r="I78" s="576"/>
-      <c r="J78" s="577"/>
-      <c r="K78" s="580"/>
-      <c r="L78" s="581"/>
+      <c r="I78" s="562"/>
+      <c r="J78" s="563"/>
+      <c r="K78" s="566"/>
+      <c r="L78" s="567"/>
       <c r="M78" s="2"/>
       <c r="N78" s="60"/>
       <c r="O78" s="165"/>
@@ -26801,7 +26801,7 @@
       <c r="C81" s="130"/>
       <c r="E81" s="7"/>
       <c r="M81" s="4"/>
-      <c r="AC81" s="553"/>
+      <c r="AC81" s="532"/>
       <c r="AD81" s="440"/>
       <c r="AE81" s="440"/>
       <c r="AF81" s="440"/>
@@ -26814,7 +26814,7 @@
       <c r="E82" s="7"/>
       <c r="F82" s="273"/>
       <c r="M82" s="4"/>
-      <c r="AC82" s="553"/>
+      <c r="AC82" s="532"/>
       <c r="AD82" s="440"/>
       <c r="AE82" s="440"/>
       <c r="AF82" s="440"/>
@@ -26908,13 +26908,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I77:J78"/>
-    <mergeCell ref="K77:L78"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="AB2:AG3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
@@ -26930,21 +26938,13 @@
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="N39:N40"/>
     <mergeCell ref="M44:N44"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AB29:AB30"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="AB2:AG3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I77:J78"/>
+    <mergeCell ref="K77:L78"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.27559055118110237" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26960,7 +26960,7 @@
   </sheetPr>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C107" sqref="C106:C107"/>
     </sheetView>
   </sheetViews>
@@ -28615,12 +28615,12 @@
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="32"/>
-      <c r="B47" s="582" t="s">
+      <c r="B47" s="585" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="583"/>
-      <c r="D47" s="583"/>
-      <c r="E47" s="584"/>
+      <c r="C47" s="586"/>
+      <c r="D47" s="586"/>
+      <c r="E47" s="587"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29976,17 +29976,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="506" t="s">
+      <c r="C1" s="487" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
-      <c r="K1" s="506"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -30017,17 +30017,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="488" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="508"/>
+      <c r="C3" s="489"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="509" t="s">
+      <c r="H3" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="509"/>
+      <c r="I3" s="490"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -30056,14 +30056,14 @@
       <c r="D4" s="23">
         <v>44230</v>
       </c>
-      <c r="E4" s="510" t="s">
+      <c r="E4" s="491" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="511"/>
-      <c r="H4" s="512" t="s">
+      <c r="F4" s="492"/>
+      <c r="H4" s="493" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="513"/>
+      <c r="I4" s="494"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -32602,61 +32602,61 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="493" t="s">
+      <c r="H64" s="495" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="494"/>
+      <c r="I64" s="496"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="495">
+      <c r="K64" s="497">
         <f>I62+L62</f>
         <v>259947.00000000003</v>
       </c>
-      <c r="L64" s="496"/>
-      <c r="M64" s="497">
+      <c r="L64" s="498"/>
+      <c r="M64" s="499">
         <f>M62+N62</f>
         <v>2744320</v>
       </c>
-      <c r="N64" s="498"/>
+      <c r="N64" s="500"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="505" t="s">
+      <c r="D65" s="507" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="505"/>
+      <c r="E65" s="507"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>2374814.2599999998</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="484">
+      <c r="P65" s="508">
         <f>P62+Q62</f>
         <v>3144691.75</v>
       </c>
-      <c r="Q65" s="485"/>
+      <c r="Q65" s="509"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="486" t="s">
+      <c r="D66" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="486"/>
+      <c r="E66" s="510"/>
       <c r="F66" s="95">
         <v>-2261593.1</v>
       </c>
-      <c r="I66" s="487" t="s">
+      <c r="I66" s="511" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="488"/>
-      <c r="K66" s="489">
+      <c r="J66" s="512"/>
+      <c r="K66" s="513">
         <f>F68+F69+F70</f>
         <v>355407.6199999997</v>
       </c>
-      <c r="L66" s="490"/>
+      <c r="L66" s="514"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
@@ -32693,11 +32693,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="491">
+      <c r="K68" s="515">
         <f>-C4</f>
         <v>-209541.1</v>
       </c>
-      <c r="L68" s="492"/>
+      <c r="L68" s="516"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -32721,22 +32721,22 @@
       <c r="C70" s="119">
         <v>44257</v>
       </c>
-      <c r="D70" s="499" t="s">
+      <c r="D70" s="501" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="500"/>
+      <c r="E70" s="502"/>
       <c r="F70" s="120">
         <v>223014.26</v>
       </c>
-      <c r="I70" s="501" t="s">
+      <c r="I70" s="503" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="502"/>
-      <c r="K70" s="503">
+      <c r="J70" s="504"/>
+      <c r="K70" s="505">
         <f>K66+K68</f>
         <v>145866.5199999997</v>
       </c>
-      <c r="L70" s="504"/>
+      <c r="L70" s="506"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -32837,6 +32837,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -32848,12 +32854,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -34124,17 +34124,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="506" t="s">
+      <c r="C1" s="487" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
-      <c r="K1" s="506"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -34164,17 +34164,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="488" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="508"/>
+      <c r="C3" s="489"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="509" t="s">
+      <c r="H3" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="509"/>
+      <c r="I3" s="490"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -34203,14 +34203,14 @@
       <c r="D4" s="23">
         <v>44257</v>
       </c>
-      <c r="E4" s="510" t="s">
+      <c r="E4" s="491" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="511"/>
-      <c r="H4" s="512" t="s">
+      <c r="F4" s="492"/>
+      <c r="H4" s="493" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="513"/>
+      <c r="I4" s="494"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -36812,61 +36812,61 @@
       <c r="A62" s="60"/>
       <c r="B62" s="100"/>
       <c r="C62" s="4"/>
-      <c r="H62" s="493" t="s">
+      <c r="H62" s="495" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="494"/>
+      <c r="I62" s="496"/>
       <c r="J62" s="101"/>
-      <c r="K62" s="495">
+      <c r="K62" s="497">
         <f>I60+L60</f>
         <v>781851.32000000007</v>
       </c>
-      <c r="L62" s="496"/>
-      <c r="M62" s="497">
+      <c r="L62" s="498"/>
+      <c r="M62" s="499">
         <f>M60+N60</f>
         <v>4064802.5</v>
       </c>
-      <c r="N62" s="498"/>
+      <c r="N62" s="500"/>
       <c r="O62" s="102"/>
       <c r="P62" s="99"/>
       <c r="Q62" s="99"/>
       <c r="S62" s="174"/>
     </row>
     <row r="63" spans="1:23" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="505" t="s">
+      <c r="D63" s="507" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="505"/>
+      <c r="E63" s="507"/>
       <c r="F63" s="103">
         <f>F60-K62-C60</f>
         <v>3177878.1399999997</v>
       </c>
       <c r="I63" s="104"/>
       <c r="J63" s="105"/>
-      <c r="P63" s="484">
+      <c r="P63" s="508">
         <f>P60+Q60</f>
         <v>4585432.34</v>
       </c>
-      <c r="Q63" s="485"/>
+      <c r="Q63" s="509"/>
       <c r="S63" s="50"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="486" t="s">
+      <c r="D64" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="486"/>
+      <c r="E64" s="510"/>
       <c r="F64" s="95">
         <v>-3579271.89</v>
       </c>
-      <c r="I64" s="487" t="s">
+      <c r="I64" s="511" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="488"/>
-      <c r="K64" s="489">
+      <c r="J64" s="512"/>
+      <c r="K64" s="513">
         <f>F66+F67+F68</f>
         <v>-110332.85000000047</v>
       </c>
-      <c r="L64" s="490"/>
+      <c r="L64" s="514"/>
       <c r="P64" s="50"/>
       <c r="S64" s="107"/>
     </row>
@@ -36900,11 +36900,11 @@
         <v>21</v>
       </c>
       <c r="J66" s="115"/>
-      <c r="K66" s="491">
+      <c r="K66" s="515">
         <f>-C4</f>
         <v>-223014.26</v>
       </c>
-      <c r="L66" s="492"/>
+      <c r="L66" s="516"/>
       <c r="M66" s="116"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="7"/>
@@ -36928,22 +36928,22 @@
       <c r="C68" s="119">
         <v>44291</v>
       </c>
-      <c r="D68" s="499" t="s">
+      <c r="D68" s="501" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="500"/>
+      <c r="E68" s="502"/>
       <c r="F68" s="120">
         <v>215362.9</v>
       </c>
-      <c r="I68" s="514" t="s">
+      <c r="I68" s="517" t="s">
         <v>431</v>
       </c>
-      <c r="J68" s="515"/>
-      <c r="K68" s="516">
+      <c r="J68" s="518"/>
+      <c r="K68" s="519">
         <f>K64+K66</f>
         <v>-333347.11000000045</v>
       </c>
-      <c r="L68" s="517"/>
+      <c r="L68" s="520"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
       <c r="S68" s="121"/>
@@ -37099,6 +37099,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="I64:J64"/>
@@ -37110,12 +37116,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38547,17 +38547,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="506" t="s">
+      <c r="C1" s="487" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
-      <c r="K1" s="506"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -38587,17 +38587,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="488" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="508"/>
+      <c r="C3" s="489"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="509" t="s">
+      <c r="H3" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="509"/>
+      <c r="I3" s="490"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -38626,14 +38626,14 @@
       <c r="D4" s="23">
         <v>44291</v>
       </c>
-      <c r="E4" s="510" t="s">
+      <c r="E4" s="491" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="511"/>
-      <c r="H4" s="512" t="s">
+      <c r="F4" s="492"/>
+      <c r="H4" s="493" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="519"/>
+      <c r="I4" s="521"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -41125,61 +41125,61 @@
       <c r="A58" s="60"/>
       <c r="B58" s="100"/>
       <c r="C58" s="4"/>
-      <c r="H58" s="493" t="s">
+      <c r="H58" s="495" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="494"/>
+      <c r="I58" s="496"/>
       <c r="J58" s="101"/>
-      <c r="K58" s="495">
+      <c r="K58" s="497">
         <f>I56+L56</f>
         <v>370346.35000000003</v>
       </c>
-      <c r="L58" s="520"/>
-      <c r="M58" s="497">
+      <c r="L58" s="522"/>
+      <c r="M58" s="499">
         <f>M56+N56</f>
         <v>3537422</v>
       </c>
-      <c r="N58" s="498"/>
+      <c r="N58" s="500"/>
       <c r="O58" s="102"/>
       <c r="P58" s="99"/>
       <c r="Q58" s="99"/>
       <c r="S58" s="174"/>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="505" t="s">
+      <c r="D59" s="507" t="s">
         <v>17</v>
       </c>
-      <c r="E59" s="518"/>
+      <c r="E59" s="523"/>
       <c r="F59" s="103">
         <f>F56-K58-C56</f>
         <v>3048717.54</v>
       </c>
       <c r="I59" s="104"/>
       <c r="J59" s="105"/>
-      <c r="P59" s="484">
+      <c r="P59" s="508">
         <f>P56+Q56</f>
         <v>8073324.3200000003</v>
       </c>
-      <c r="Q59" s="485"/>
+      <c r="Q59" s="509"/>
       <c r="S59" s="50"/>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="486" t="s">
+      <c r="D60" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="486"/>
+      <c r="E60" s="510"/>
       <c r="F60" s="95">
         <v>-3102716.28</v>
       </c>
-      <c r="I60" s="487" t="s">
+      <c r="I60" s="511" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="488"/>
-      <c r="K60" s="489">
+      <c r="J60" s="512"/>
+      <c r="K60" s="513">
         <f>F62+F63+F64</f>
         <v>216465.62000000023</v>
       </c>
-      <c r="L60" s="490"/>
+      <c r="L60" s="514"/>
       <c r="P60" s="50"/>
       <c r="S60" s="107"/>
     </row>
@@ -41213,11 +41213,11 @@
         <v>21</v>
       </c>
       <c r="J62" s="115"/>
-      <c r="K62" s="491">
+      <c r="K62" s="515">
         <f>-C4</f>
         <v>-215362.9</v>
       </c>
-      <c r="L62" s="492"/>
+      <c r="L62" s="516"/>
       <c r="M62" s="116"/>
       <c r="P62" s="50"/>
       <c r="Q62" s="7"/>
@@ -41241,22 +41241,22 @@
       <c r="C64" s="119">
         <v>44320</v>
       </c>
-      <c r="D64" s="499" t="s">
+      <c r="D64" s="501" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="500"/>
+      <c r="E64" s="502"/>
       <c r="F64" s="120">
         <v>249311.35999999999</v>
       </c>
-      <c r="I64" s="501" t="s">
+      <c r="I64" s="503" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="502"/>
-      <c r="K64" s="503">
+      <c r="J64" s="504"/>
+      <c r="K64" s="505">
         <f>K60+K62</f>
         <v>1102.720000000234</v>
       </c>
-      <c r="L64" s="504"/>
+      <c r="L64" s="506"/>
       <c r="P64" s="50"/>
       <c r="Q64" s="7"/>
       <c r="S64" s="121"/>
@@ -41412,6 +41412,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="I60:J60"/>
@@ -41423,12 +41429,6 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -42311,17 +42311,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="506" t="s">
+      <c r="C1" s="487" t="s">
         <v>504</v>
       </c>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
-      <c r="K1" s="506"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
+      <c r="K1" s="487"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="U1" s="209"/>
@@ -42351,17 +42351,17 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="488" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="508"/>
+      <c r="C3" s="489"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="509" t="s">
+      <c r="H3" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="509"/>
+      <c r="I3" s="490"/>
       <c r="K3" s="17" t="s">
         <v>3</v>
       </c>
@@ -42390,14 +42390,14 @@
       <c r="D4" s="23">
         <v>44320</v>
       </c>
-      <c r="E4" s="510" t="s">
+      <c r="E4" s="491" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="511"/>
-      <c r="H4" s="512" t="s">
+      <c r="F4" s="492"/>
+      <c r="H4" s="493" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="513"/>
+      <c r="I4" s="494"/>
       <c r="J4" s="24"/>
       <c r="K4" s="25"/>
       <c r="L4" s="26"/>
@@ -45274,71 +45274,71 @@
       <c r="A64" s="60"/>
       <c r="B64" s="100"/>
       <c r="C64" s="4"/>
-      <c r="H64" s="493" t="s">
+      <c r="H64" s="495" t="s">
         <v>16</v>
       </c>
-      <c r="I64" s="494"/>
+      <c r="I64" s="496"/>
       <c r="J64" s="101"/>
-      <c r="K64" s="495">
+      <c r="K64" s="497">
         <f>I62+L62</f>
         <v>779034.56000000017</v>
       </c>
-      <c r="L64" s="496"/>
-      <c r="M64" s="497">
+      <c r="L64" s="498"/>
+      <c r="M64" s="499">
         <f>M62+N62</f>
         <v>4478181</v>
       </c>
-      <c r="N64" s="498"/>
+      <c r="N64" s="500"/>
       <c r="O64" s="102"/>
       <c r="P64" s="99"/>
       <c r="Q64" s="99"/>
       <c r="S64" s="174"/>
     </row>
     <row r="65" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="505" t="s">
+      <c r="D65" s="507" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="505"/>
+      <c r="E65" s="507"/>
       <c r="F65" s="103">
         <f>F62-K64-C62</f>
         <v>3602842.44</v>
       </c>
       <c r="I65" s="104"/>
       <c r="J65" s="105"/>
-      <c r="P65" s="484">
+      <c r="P65" s="508">
         <f>P62+Q62</f>
         <v>5004562.5599999996</v>
       </c>
-      <c r="Q65" s="485"/>
+      <c r="Q65" s="509"/>
       <c r="S65" s="50"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="521" t="s">
+      <c r="B66" s="524" t="s">
         <v>528</v>
       </c>
-      <c r="C66" s="522"/>
-      <c r="D66" s="505" t="s">
+      <c r="C66" s="525"/>
+      <c r="D66" s="507" t="s">
         <v>502</v>
       </c>
-      <c r="E66" s="505"/>
+      <c r="E66" s="507"/>
       <c r="F66" s="95">
         <v>-3854423.8</v>
       </c>
-      <c r="I66" s="487" t="s">
+      <c r="I66" s="511" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="488"/>
-      <c r="K66" s="489">
+      <c r="J66" s="512"/>
+      <c r="K66" s="513">
         <f>F68+F69+F70</f>
         <v>14998.430000000139</v>
       </c>
-      <c r="L66" s="490"/>
+      <c r="L66" s="514"/>
       <c r="P66" s="50"/>
       <c r="S66" s="107"/>
     </row>
     <row r="67" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="523"/>
-      <c r="C67" s="524"/>
+      <c r="B67" s="526"/>
+      <c r="C67" s="527"/>
       <c r="D67" s="108"/>
       <c r="E67" s="60"/>
       <c r="F67" s="109">
@@ -45353,8 +45353,8 @@
       <c r="S67" s="50"/>
     </row>
     <row r="68" spans="2:19" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="525"/>
-      <c r="C68" s="526"/>
+      <c r="B68" s="528"/>
+      <c r="C68" s="529"/>
       <c r="E68" s="60" t="s">
         <v>20</v>
       </c>
@@ -45367,11 +45367,11 @@
         <v>21</v>
       </c>
       <c r="J68" s="115"/>
-      <c r="K68" s="491">
+      <c r="K68" s="515">
         <f>-C4</f>
         <v>-249311.35999999999</v>
       </c>
-      <c r="L68" s="492"/>
+      <c r="L68" s="516"/>
       <c r="M68" s="116"/>
       <c r="P68" s="50"/>
       <c r="Q68" s="7"/>
@@ -45395,22 +45395,22 @@
       <c r="C70" s="119">
         <v>44353</v>
       </c>
-      <c r="D70" s="499" t="s">
+      <c r="D70" s="501" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="500"/>
+      <c r="E70" s="502"/>
       <c r="F70" s="120">
         <v>255764.39</v>
       </c>
-      <c r="I70" s="501" t="s">
+      <c r="I70" s="503" t="s">
         <v>431</v>
       </c>
-      <c r="J70" s="502"/>
-      <c r="K70" s="503">
+      <c r="J70" s="504"/>
+      <c r="K70" s="505">
         <f>K66+K68</f>
         <v>-234312.92999999985</v>
       </c>
-      <c r="L70" s="504"/>
+      <c r="L70" s="506"/>
       <c r="P70" s="50"/>
       <c r="Q70" s="7"/>
       <c r="S70" s="121"/>
@@ -45566,6 +45566,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="I66:J66"/>
@@ -45579,11 +45584,6 @@
     <mergeCell ref="K64:L64"/>
     <mergeCell ref="B66:C68"/>
     <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
